--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2786,15 +2786,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E746"/>
+  <dimension ref="A1:E905"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.75"/>
@@ -2855,9 +2855,7 @@
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
@@ -2872,9 +2870,7 @@
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2889,9 +2885,7 @@
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
@@ -2906,9 +2900,7 @@
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
@@ -2923,9 +2915,7 @@
       <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14" t="n">
-        <v>2</v>
-      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
@@ -2940,9 +2930,7 @@
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="n">
-        <v>2</v>
-      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
@@ -2957,9 +2945,7 @@
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="n">
-        <v>2</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
         <v>11</v>
       </c>
@@ -2974,9 +2960,7 @@
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="n">
-        <v>2</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
@@ -2991,9 +2975,7 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
@@ -3008,9 +2990,7 @@
       <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
         <v>11</v>
       </c>
@@ -3025,9 +3005,7 @@
       <c r="C15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
         <v>11</v>
       </c>
@@ -3042,9 +3020,7 @@
       <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
@@ -3059,9 +3035,7 @@
       <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14" t="n">
-        <v>4</v>
-      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
@@ -3076,9 +3050,7 @@
       <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14" t="n">
-        <v>4</v>
-      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
         <v>11</v>
       </c>
@@ -3093,9 +3065,7 @@
       <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="14" t="n">
-        <v>4</v>
-      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
         <v>11</v>
       </c>
@@ -3110,9 +3080,7 @@
       <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14" t="n">
-        <v>4</v>
-      </c>
+      <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
         <v>11</v>
       </c>
@@ -3127,9 +3095,7 @@
       <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="14" t="n">
-        <v>5</v>
-      </c>
+      <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
         <v>11</v>
       </c>
@@ -3144,9 +3110,7 @@
       <c r="C22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="14" t="n">
-        <v>5</v>
-      </c>
+      <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
         <v>11</v>
       </c>
@@ -3161,9 +3125,7 @@
       <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="14" t="n">
-        <v>5</v>
-      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
         <v>11</v>
       </c>
@@ -3178,9 +3140,7 @@
       <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="14" t="n">
-        <v>5</v>
-      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
         <v>11</v>
       </c>
@@ -3195,9 +3155,7 @@
       <c r="C25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="14" t="n">
-        <v>6</v>
-      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
         <v>11</v>
       </c>
@@ -3212,9 +3170,7 @@
       <c r="C26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="14" t="n">
-        <v>6</v>
-      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
         <v>11</v>
       </c>
@@ -3229,9 +3185,7 @@
       <c r="C27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="14" t="n">
-        <v>6</v>
-      </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
         <v>11</v>
       </c>
@@ -3246,9 +3200,7 @@
       <c r="C28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="14" t="n">
-        <v>7</v>
-      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
         <v>11</v>
       </c>
@@ -3263,9 +3215,7 @@
       <c r="C29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="14" t="n">
-        <v>7</v>
-      </c>
+      <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
         <v>11</v>
       </c>
@@ -3280,9 +3230,7 @@
       <c r="C30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="14" t="n">
-        <v>7</v>
-      </c>
+      <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
         <v>11</v>
       </c>
@@ -3297,9 +3245,7 @@
       <c r="C31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="14" t="n">
-        <v>7</v>
-      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
@@ -3314,9 +3260,7 @@
       <c r="C32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="14" t="n">
-        <v>7</v>
-      </c>
+      <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
         <v>11</v>
       </c>
@@ -3331,9 +3275,7 @@
       <c r="C33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="14" t="n">
-        <v>7</v>
-      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
         <v>11</v>
       </c>
@@ -3348,9 +3290,7 @@
       <c r="C34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="14" t="n">
-        <v>8</v>
-      </c>
+      <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
         <v>11</v>
       </c>
@@ -3365,9 +3305,7 @@
       <c r="C35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="14" t="n">
-        <v>8</v>
-      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
         <v>11</v>
       </c>
@@ -3382,9 +3320,7 @@
       <c r="C36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="14" t="n">
-        <v>8</v>
-      </c>
+      <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
         <v>11</v>
       </c>
@@ -3399,9 +3335,7 @@
       <c r="C37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="14" t="n">
-        <v>9</v>
-      </c>
+      <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
         <v>11</v>
       </c>
@@ -3416,9 +3350,7 @@
       <c r="C38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="14" t="n">
-        <v>9</v>
-      </c>
+      <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
         <v>11</v>
       </c>
@@ -3433,9 +3365,7 @@
       <c r="C39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="14" t="n">
-        <v>10</v>
-      </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
         <v>11</v>
       </c>
@@ -3450,9 +3380,7 @@
       <c r="C40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="14" t="n">
-        <v>10</v>
-      </c>
+      <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
         <v>11</v>
       </c>
@@ -3467,9 +3395,7 @@
       <c r="C41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="14" t="n">
-        <v>10</v>
-      </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
         <v>11</v>
       </c>
@@ -3484,9 +3410,7 @@
       <c r="C42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="14" t="n">
-        <v>11</v>
-      </c>
+      <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
         <v>11</v>
       </c>
@@ -3501,9 +3425,7 @@
       <c r="C43" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="14" t="n">
-        <v>11</v>
-      </c>
+      <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
         <v>11</v>
       </c>
@@ -3518,9 +3440,7 @@
       <c r="C44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="14" t="n">
-        <v>12</v>
-      </c>
+      <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
         <v>11</v>
       </c>
@@ -3535,9 +3455,7 @@
       <c r="C45" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="14" t="n">
-        <v>12</v>
-      </c>
+      <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
         <v>11</v>
       </c>
@@ -3552,9 +3470,7 @@
       <c r="C46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="14" t="n">
-        <v>13</v>
-      </c>
+      <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
         <v>11</v>
       </c>
@@ -3569,9 +3485,7 @@
       <c r="C47" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="14" t="n">
-        <v>13</v>
-      </c>
+      <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
         <v>11</v>
       </c>
@@ -3586,9 +3500,7 @@
       <c r="C48" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="14" t="n">
-        <v>14</v>
-      </c>
+      <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
         <v>11</v>
       </c>
@@ -3603,9 +3515,7 @@
       <c r="C49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="14" t="n">
-        <v>14</v>
-      </c>
+      <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
         <v>11</v>
       </c>
@@ -3627,9 +3537,7 @@
       <c r="C51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="14" t="n">
-        <v>15</v>
-      </c>
+      <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
         <v>11</v>
       </c>
@@ -3644,9 +3552,7 @@
       <c r="C52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="14" t="n">
-        <v>15</v>
-      </c>
+      <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
         <v>11</v>
       </c>
@@ -3661,9 +3567,7 @@
       <c r="C53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="14" t="n">
-        <v>15</v>
-      </c>
+      <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
         <v>11</v>
       </c>
@@ -3678,9 +3582,7 @@
       <c r="C54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="14" t="n">
-        <v>15</v>
-      </c>
+      <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
         <v>11</v>
       </c>
@@ -3695,9 +3597,7 @@
       <c r="C55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="14" t="n">
-        <v>16</v>
-      </c>
+      <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
@@ -3712,9 +3612,7 @@
       <c r="C56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="14" t="n">
-        <v>16</v>
-      </c>
+      <c r="D56" s="14"/>
       <c r="E56" s="14" t="s">
         <v>11</v>
       </c>
@@ -3729,9 +3627,7 @@
       <c r="C57" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="14" t="n">
-        <v>16</v>
-      </c>
+      <c r="D57" s="14"/>
       <c r="E57" s="14" t="s">
         <v>11</v>
       </c>
@@ -3746,9 +3642,7 @@
       <c r="C58" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="14" t="n">
-        <v>16</v>
-      </c>
+      <c r="D58" s="14"/>
       <c r="E58" s="14" t="s">
         <v>11</v>
       </c>
@@ -3763,9 +3657,7 @@
       <c r="C59" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="14" t="n">
-        <v>17</v>
-      </c>
+      <c r="D59" s="14"/>
       <c r="E59" s="14" t="s">
         <v>11</v>
       </c>
@@ -3780,9 +3672,7 @@
       <c r="C60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="14" t="n">
-        <v>17</v>
-      </c>
+      <c r="D60" s="14"/>
       <c r="E60" s="14" t="s">
         <v>11</v>
       </c>
@@ -3797,9 +3687,7 @@
       <c r="C61" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="14" t="n">
-        <v>17</v>
-      </c>
+      <c r="D61" s="14"/>
       <c r="E61" s="14" t="s">
         <v>11</v>
       </c>
@@ -3814,9 +3702,7 @@
       <c r="C62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="14" t="n">
-        <v>17</v>
-      </c>
+      <c r="D62" s="14"/>
       <c r="E62" s="14" t="s">
         <v>11</v>
       </c>
@@ -3831,9 +3717,7 @@
       <c r="C63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="14" t="n">
-        <v>18</v>
-      </c>
+      <c r="D63" s="14"/>
       <c r="E63" s="14" t="s">
         <v>11</v>
       </c>
@@ -3848,9 +3732,7 @@
       <c r="C64" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="14" t="n">
-        <v>18</v>
-      </c>
+      <c r="D64" s="14"/>
       <c r="E64" s="14" t="s">
         <v>11</v>
       </c>
@@ -3865,9 +3747,7 @@
       <c r="C65" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="14" t="n">
-        <v>18</v>
-      </c>
+      <c r="D65" s="14"/>
       <c r="E65" s="14" t="s">
         <v>11</v>
       </c>
@@ -3882,9 +3762,7 @@
       <c r="C66" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="14" t="n">
-        <v>18</v>
-      </c>
+      <c r="D66" s="14"/>
       <c r="E66" s="14" t="s">
         <v>11</v>
       </c>
@@ -3899,9 +3777,7 @@
       <c r="C67" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="14" t="n">
-        <v>19</v>
-      </c>
+      <c r="D67" s="14"/>
       <c r="E67" s="14" t="s">
         <v>11</v>
       </c>
@@ -3916,9 +3792,7 @@
       <c r="C68" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="14" t="n">
-        <v>20</v>
-      </c>
+      <c r="D68" s="14"/>
       <c r="E68" s="14" t="s">
         <v>11</v>
       </c>
@@ -3933,9 +3807,7 @@
       <c r="C69" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="14" t="n">
-        <v>20</v>
-      </c>
+      <c r="D69" s="14"/>
       <c r="E69" s="14" t="s">
         <v>11</v>
       </c>
@@ -3950,9 +3822,7 @@
       <c r="C70" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="14" t="n">
-        <v>20</v>
-      </c>
+      <c r="D70" s="14"/>
       <c r="E70" s="14" t="s">
         <v>11</v>
       </c>
@@ -3967,9 +3837,7 @@
       <c r="C71" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="14" t="n">
-        <v>21</v>
-      </c>
+      <c r="D71" s="14"/>
       <c r="E71" s="14" t="s">
         <v>11</v>
       </c>
@@ -3984,9 +3852,7 @@
       <c r="C72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="14" t="n">
-        <v>21</v>
-      </c>
+      <c r="D72" s="14"/>
       <c r="E72" s="14" t="s">
         <v>11</v>
       </c>
@@ -4001,9 +3867,7 @@
       <c r="C73" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="14" t="n">
-        <v>21</v>
-      </c>
+      <c r="D73" s="14"/>
       <c r="E73" s="14" t="s">
         <v>11</v>
       </c>
@@ -4018,9 +3882,7 @@
       <c r="C74" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="14" t="n">
-        <v>22</v>
-      </c>
+      <c r="D74" s="14"/>
       <c r="E74" s="14" t="s">
         <v>11</v>
       </c>
@@ -4035,9 +3897,7 @@
       <c r="C75" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="14" t="n">
-        <v>22</v>
-      </c>
+      <c r="D75" s="14"/>
       <c r="E75" s="14" t="s">
         <v>11</v>
       </c>
@@ -4052,9 +3912,7 @@
       <c r="C76" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="14" t="n">
-        <v>22</v>
-      </c>
+      <c r="D76" s="14"/>
       <c r="E76" s="14" t="s">
         <v>11</v>
       </c>
@@ -4069,9 +3927,7 @@
       <c r="C77" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="14" t="n">
-        <v>23</v>
-      </c>
+      <c r="D77" s="14"/>
       <c r="E77" s="14" t="s">
         <v>11</v>
       </c>
@@ -4086,9 +3942,7 @@
       <c r="C78" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="14" t="n">
-        <v>23</v>
-      </c>
+      <c r="D78" s="14"/>
       <c r="E78" s="14" t="s">
         <v>11</v>
       </c>
@@ -4103,9 +3957,7 @@
       <c r="C79" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="14" t="n">
-        <v>23</v>
-      </c>
+      <c r="D79" s="14"/>
       <c r="E79" s="14" t="s">
         <v>11</v>
       </c>
@@ -4120,9 +3972,7 @@
       <c r="C80" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="14" t="n">
-        <v>24</v>
-      </c>
+      <c r="D80" s="14"/>
       <c r="E80" s="14" t="s">
         <v>11</v>
       </c>
@@ -4137,9 +3987,7 @@
       <c r="C81" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="14" t="n">
-        <v>24</v>
-      </c>
+      <c r="D81" s="14"/>
       <c r="E81" s="14" t="s">
         <v>11</v>
       </c>
@@ -4154,9 +4002,7 @@
       <c r="C82" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D82" s="14" t="n">
-        <v>25</v>
-      </c>
+      <c r="D82" s="14"/>
       <c r="E82" s="14" t="s">
         <v>11</v>
       </c>
@@ -4171,9 +4017,7 @@
       <c r="C83" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="14" t="n">
-        <v>25</v>
-      </c>
+      <c r="D83" s="14"/>
       <c r="E83" s="14" t="s">
         <v>11</v>
       </c>
@@ -4188,9 +4032,7 @@
       <c r="C84" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="14" t="n">
-        <v>26</v>
-      </c>
+      <c r="D84" s="14"/>
       <c r="E84" s="14" t="s">
         <v>11</v>
       </c>
@@ -4205,9 +4047,7 @@
       <c r="C85" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="14" t="n">
-        <v>26</v>
-      </c>
+      <c r="D85" s="14"/>
       <c r="E85" s="14" t="s">
         <v>11</v>
       </c>
@@ -4222,9 +4062,7 @@
       <c r="C86" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="14" t="n">
-        <v>27</v>
-      </c>
+      <c r="D86" s="14"/>
       <c r="E86" s="14" t="s">
         <v>11</v>
       </c>
@@ -4239,9 +4077,7 @@
       <c r="C87" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="14" t="n">
-        <v>27</v>
-      </c>
+      <c r="D87" s="14"/>
       <c r="E87" s="14" t="s">
         <v>11</v>
       </c>
@@ -4256,9 +4092,7 @@
       <c r="C88" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="14" t="n">
-        <v>28</v>
-      </c>
+      <c r="D88" s="14"/>
       <c r="E88" s="14" t="s">
         <v>11</v>
       </c>
@@ -4273,9 +4107,7 @@
       <c r="C89" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="14" t="n">
-        <v>28</v>
-      </c>
+      <c r="D89" s="14"/>
       <c r="E89" s="14" t="s">
         <v>11</v>
       </c>
@@ -4297,9 +4129,7 @@
       <c r="C91" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="14" t="n">
-        <v>29</v>
-      </c>
+      <c r="D91" s="14"/>
       <c r="E91" s="14" t="s">
         <v>11</v>
       </c>
@@ -4314,9 +4144,7 @@
       <c r="C92" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="14" t="n">
-        <v>29</v>
-      </c>
+      <c r="D92" s="14"/>
       <c r="E92" s="14" t="s">
         <v>11</v>
       </c>
@@ -4331,9 +4159,7 @@
       <c r="C93" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="14" t="n">
-        <v>29</v>
-      </c>
+      <c r="D93" s="14"/>
       <c r="E93" s="14" t="s">
         <v>11</v>
       </c>
@@ -4348,9 +4174,7 @@
       <c r="C94" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="14" t="n">
-        <v>29</v>
-      </c>
+      <c r="D94" s="14"/>
       <c r="E94" s="14" t="s">
         <v>11</v>
       </c>
@@ -4365,9 +4189,7 @@
       <c r="C95" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="14" t="n">
-        <v>30</v>
-      </c>
+      <c r="D95" s="14"/>
       <c r="E95" s="14" t="s">
         <v>11</v>
       </c>
@@ -4382,9 +4204,7 @@
       <c r="C96" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="14" t="n">
-        <v>30</v>
-      </c>
+      <c r="D96" s="14"/>
       <c r="E96" s="14" t="s">
         <v>11</v>
       </c>
@@ -4399,9 +4219,7 @@
       <c r="C97" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="14" t="n">
-        <v>30</v>
-      </c>
+      <c r="D97" s="14"/>
       <c r="E97" s="14" t="s">
         <v>11</v>
       </c>
@@ -4416,9 +4234,7 @@
       <c r="C98" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="14" t="n">
-        <v>30</v>
-      </c>
+      <c r="D98" s="14"/>
       <c r="E98" s="14" t="s">
         <v>11</v>
       </c>
@@ -4433,9 +4249,7 @@
       <c r="C99" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="14" t="n">
-        <v>31</v>
-      </c>
+      <c r="D99" s="14"/>
       <c r="E99" s="14" t="s">
         <v>11</v>
       </c>
@@ -4450,9 +4264,7 @@
       <c r="C100" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="14" t="n">
-        <v>31</v>
-      </c>
+      <c r="D100" s="14"/>
       <c r="E100" s="14" t="s">
         <v>11</v>
       </c>
@@ -4467,9 +4279,7 @@
       <c r="C101" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="14" t="n">
-        <v>31</v>
-      </c>
+      <c r="D101" s="14"/>
       <c r="E101" s="14" t="s">
         <v>11</v>
       </c>
@@ -4484,9 +4294,7 @@
       <c r="C102" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="14" t="n">
-        <v>31</v>
-      </c>
+      <c r="D102" s="14"/>
       <c r="E102" s="14" t="s">
         <v>11</v>
       </c>
@@ -4501,9 +4309,7 @@
       <c r="C103" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="14" t="n">
-        <v>32</v>
-      </c>
+      <c r="D103" s="14"/>
       <c r="E103" s="14" t="s">
         <v>11</v>
       </c>
@@ -4518,9 +4324,7 @@
       <c r="C104" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="14" t="n">
-        <v>32</v>
-      </c>
+      <c r="D104" s="14"/>
       <c r="E104" s="14" t="s">
         <v>11</v>
       </c>
@@ -4535,9 +4339,7 @@
       <c r="C105" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="14" t="n">
-        <v>32</v>
-      </c>
+      <c r="D105" s="14"/>
       <c r="E105" s="14" t="s">
         <v>11</v>
       </c>
@@ -4552,9 +4354,7 @@
       <c r="C106" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="14" t="n">
-        <v>32</v>
-      </c>
+      <c r="D106" s="14"/>
       <c r="E106" s="14" t="s">
         <v>11</v>
       </c>
@@ -4569,9 +4369,7 @@
       <c r="C107" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="14" t="n">
-        <v>33</v>
-      </c>
+      <c r="D107" s="14"/>
       <c r="E107" s="14" t="s">
         <v>11</v>
       </c>
@@ -4586,9 +4384,7 @@
       <c r="C108" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="14" t="n">
-        <v>33</v>
-      </c>
+      <c r="D108" s="14"/>
       <c r="E108" s="14" t="s">
         <v>11</v>
       </c>
@@ -4603,9 +4399,7 @@
       <c r="C109" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D109" s="14" t="n">
-        <v>33</v>
-      </c>
+      <c r="D109" s="14"/>
       <c r="E109" s="14" t="s">
         <v>11</v>
       </c>
@@ -4620,9 +4414,7 @@
       <c r="C110" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="14" t="n">
-        <v>33</v>
-      </c>
+      <c r="D110" s="14"/>
       <c r="E110" s="14" t="s">
         <v>11</v>
       </c>
@@ -4637,9 +4429,7 @@
       <c r="C111" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="14" t="n">
-        <v>34</v>
-      </c>
+      <c r="D111" s="14"/>
       <c r="E111" s="14" t="s">
         <v>11</v>
       </c>
@@ -4654,9 +4444,7 @@
       <c r="C112" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="14" t="n">
-        <v>34</v>
-      </c>
+      <c r="D112" s="14"/>
       <c r="E112" s="14" t="s">
         <v>11</v>
       </c>
@@ -4671,9 +4459,7 @@
       <c r="C113" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="14" t="n">
-        <v>34</v>
-      </c>
+      <c r="D113" s="14"/>
       <c r="E113" s="14" t="s">
         <v>11</v>
       </c>
@@ -4688,9 +4474,7 @@
       <c r="C114" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="14" t="n">
-        <v>34</v>
-      </c>
+      <c r="D114" s="14"/>
       <c r="E114" s="14" t="s">
         <v>11</v>
       </c>
@@ -4705,9 +4489,7 @@
       <c r="C115" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="14" t="n">
-        <v>35</v>
-      </c>
+      <c r="D115" s="14"/>
       <c r="E115" s="14" t="s">
         <v>11</v>
       </c>
@@ -4722,9 +4504,7 @@
       <c r="C116" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="14" t="n">
-        <v>35</v>
-      </c>
+      <c r="D116" s="14"/>
       <c r="E116" s="14" t="s">
         <v>11</v>
       </c>
@@ -4739,9 +4519,7 @@
       <c r="C117" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="14" t="n">
-        <v>35</v>
-      </c>
+      <c r="D117" s="14"/>
       <c r="E117" s="14" t="s">
         <v>11</v>
       </c>
@@ -4756,9 +4534,7 @@
       <c r="C118" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="14" t="n">
-        <v>35</v>
-      </c>
+      <c r="D118" s="14"/>
       <c r="E118" s="14" t="s">
         <v>11</v>
       </c>
@@ -4773,9 +4549,7 @@
       <c r="C119" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="14" t="n">
-        <v>36</v>
-      </c>
+      <c r="D119" s="14"/>
       <c r="E119" s="14" t="s">
         <v>11</v>
       </c>
@@ -4790,9 +4564,7 @@
       <c r="C120" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D120" s="14" t="n">
-        <v>36</v>
-      </c>
+      <c r="D120" s="14"/>
       <c r="E120" s="14" t="s">
         <v>11</v>
       </c>
@@ -4807,9 +4579,7 @@
       <c r="C121" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="14" t="n">
-        <v>36</v>
-      </c>
+      <c r="D121" s="14"/>
       <c r="E121" s="14" t="s">
         <v>11</v>
       </c>
@@ -4824,9 +4594,7 @@
       <c r="C122" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="14" t="n">
-        <v>37</v>
-      </c>
+      <c r="D122" s="14"/>
       <c r="E122" s="14" t="s">
         <v>11</v>
       </c>
@@ -4841,9 +4609,7 @@
       <c r="C123" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D123" s="14" t="n">
-        <v>37</v>
-      </c>
+      <c r="D123" s="14"/>
       <c r="E123" s="14" t="s">
         <v>11</v>
       </c>
@@ -4858,9 +4624,7 @@
       <c r="C124" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D124" s="14" t="n">
-        <v>37</v>
-      </c>
+      <c r="D124" s="14"/>
       <c r="E124" s="14" t="s">
         <v>11</v>
       </c>
@@ -4875,9 +4639,7 @@
       <c r="C125" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D125" s="14" t="n">
-        <v>38</v>
-      </c>
+      <c r="D125" s="14"/>
       <c r="E125" s="14" t="s">
         <v>11</v>
       </c>
@@ -4892,9 +4654,7 @@
       <c r="C126" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="14" t="n">
-        <v>38</v>
-      </c>
+      <c r="D126" s="14"/>
       <c r="E126" s="14" t="s">
         <v>11</v>
       </c>
@@ -4909,9 +4669,7 @@
       <c r="C127" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="14" t="n">
-        <v>38</v>
-      </c>
+      <c r="D127" s="14"/>
       <c r="E127" s="14" t="s">
         <v>11</v>
       </c>
@@ -4926,9 +4684,7 @@
       <c r="C128" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D128" s="14" t="n">
-        <v>39</v>
-      </c>
+      <c r="D128" s="14"/>
       <c r="E128" s="14" t="s">
         <v>11</v>
       </c>
@@ -4943,9 +4699,7 @@
       <c r="C129" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="14" t="n">
-        <v>39</v>
-      </c>
+      <c r="D129" s="14"/>
       <c r="E129" s="14" t="s">
         <v>11</v>
       </c>
@@ -4960,9 +4714,7 @@
       <c r="C130" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="14" t="n">
-        <v>39</v>
-      </c>
+      <c r="D130" s="14"/>
       <c r="E130" s="14" t="s">
         <v>11</v>
       </c>
@@ -4977,9 +4729,7 @@
       <c r="C131" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D131" s="14" t="n">
-        <v>40</v>
-      </c>
+      <c r="D131" s="14"/>
       <c r="E131" s="14" t="s">
         <v>11</v>
       </c>
@@ -4994,9 +4744,7 @@
       <c r="C132" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="14" t="n">
-        <v>40</v>
-      </c>
+      <c r="D132" s="14"/>
       <c r="E132" s="14" t="s">
         <v>11</v>
       </c>
@@ -5011,9 +4759,7 @@
       <c r="C133" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D133" s="14" t="n">
-        <v>40</v>
-      </c>
+      <c r="D133" s="14"/>
       <c r="E133" s="14" t="s">
         <v>11</v>
       </c>
@@ -5028,9 +4774,7 @@
       <c r="C134" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D134" s="14" t="n">
-        <v>41</v>
-      </c>
+      <c r="D134" s="14"/>
       <c r="E134" s="14" t="s">
         <v>11</v>
       </c>
@@ -5045,9 +4789,7 @@
       <c r="C135" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D135" s="14" t="n">
-        <v>41</v>
-      </c>
+      <c r="D135" s="14"/>
       <c r="E135" s="14" t="s">
         <v>11</v>
       </c>
@@ -5062,9 +4804,7 @@
       <c r="C136" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D136" s="14" t="n">
-        <v>41</v>
-      </c>
+      <c r="D136" s="14"/>
       <c r="E136" s="14" t="s">
         <v>11</v>
       </c>
@@ -5079,9 +4819,7 @@
       <c r="C137" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D137" s="14" t="n">
-        <v>42</v>
-      </c>
+      <c r="D137" s="14"/>
       <c r="E137" s="14" t="s">
         <v>11</v>
       </c>
@@ -5096,9 +4834,7 @@
       <c r="C138" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="14" t="n">
-        <v>42</v>
-      </c>
+      <c r="D138" s="14"/>
       <c r="E138" s="14" t="s">
         <v>11</v>
       </c>
@@ -5113,9 +4849,7 @@
       <c r="C139" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D139" s="14" t="n">
-        <v>42</v>
-      </c>
+      <c r="D139" s="14"/>
       <c r="E139" s="14" t="s">
         <v>11</v>
       </c>
@@ -5130,9 +4864,7 @@
       <c r="C140" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D140" s="14" t="n">
-        <v>42</v>
-      </c>
+      <c r="D140" s="14"/>
       <c r="E140" s="14" t="s">
         <v>11</v>
       </c>
@@ -5147,9 +4879,7 @@
       <c r="C141" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D141" s="14" t="n">
-        <v>43</v>
-      </c>
+      <c r="D141" s="14"/>
       <c r="E141" s="14" t="s">
         <v>11</v>
       </c>
@@ -5164,9 +4894,7 @@
       <c r="C142" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D142" s="14" t="n">
-        <v>43</v>
-      </c>
+      <c r="D142" s="14"/>
       <c r="E142" s="14" t="s">
         <v>11</v>
       </c>
@@ -5181,9 +4909,7 @@
       <c r="C143" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D143" s="14" t="n">
-        <v>43</v>
-      </c>
+      <c r="D143" s="14"/>
       <c r="E143" s="14" t="s">
         <v>11</v>
       </c>
@@ -5198,9 +4924,7 @@
       <c r="C144" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D144" s="14" t="n">
-        <v>44</v>
-      </c>
+      <c r="D144" s="14"/>
       <c r="E144" s="14" t="s">
         <v>11</v>
       </c>
@@ -5215,9 +4939,7 @@
       <c r="C145" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D145" s="14" t="n">
-        <v>44</v>
-      </c>
+      <c r="D145" s="14"/>
       <c r="E145" s="14" t="s">
         <v>11</v>
       </c>
@@ -5232,9 +4954,7 @@
       <c r="C146" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D146" s="14" t="n">
-        <v>45</v>
-      </c>
+      <c r="D146" s="14"/>
       <c r="E146" s="14" t="s">
         <v>11</v>
       </c>
@@ -5249,9 +4969,7 @@
       <c r="C147" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D147" s="14" t="n">
-        <v>45</v>
-      </c>
+      <c r="D147" s="14"/>
       <c r="E147" s="14" t="s">
         <v>11</v>
       </c>
@@ -5266,9 +4984,7 @@
       <c r="C148" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D148" s="14" t="n">
-        <v>46</v>
-      </c>
+      <c r="D148" s="14"/>
       <c r="E148" s="14" t="s">
         <v>11</v>
       </c>
@@ -5283,9 +4999,7 @@
       <c r="C149" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D149" s="14" t="n">
-        <v>46</v>
-      </c>
+      <c r="D149" s="14"/>
       <c r="E149" s="14" t="s">
         <v>11</v>
       </c>
@@ -5300,9 +5014,7 @@
       <c r="C150" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D150" s="14" t="n">
-        <v>47</v>
-      </c>
+      <c r="D150" s="14"/>
       <c r="E150" s="14" t="s">
         <v>11</v>
       </c>
@@ -5317,9 +5029,7 @@
       <c r="C151" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D151" s="14" t="n">
-        <v>47</v>
-      </c>
+      <c r="D151" s="14"/>
       <c r="E151" s="14" t="s">
         <v>11</v>
       </c>
@@ -5334,9 +5044,7 @@
       <c r="C152" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D152" s="14" t="n">
-        <v>48</v>
-      </c>
+      <c r="D152" s="14"/>
       <c r="E152" s="14" t="s">
         <v>11</v>
       </c>
@@ -5351,9 +5059,7 @@
       <c r="C153" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D153" s="14" t="n">
-        <v>48</v>
-      </c>
+      <c r="D153" s="14"/>
       <c r="E153" s="14" t="s">
         <v>11</v>
       </c>
@@ -5368,9 +5074,7 @@
       <c r="C154" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D154" s="14" t="n">
-        <v>49</v>
-      </c>
+      <c r="D154" s="14"/>
       <c r="E154" s="14" t="s">
         <v>11</v>
       </c>
@@ -5385,9 +5089,7 @@
       <c r="C155" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="14" t="n">
-        <v>49</v>
-      </c>
+      <c r="D155" s="14"/>
       <c r="E155" s="14" t="s">
         <v>11</v>
       </c>
@@ -5409,9 +5111,7 @@
       <c r="C157" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D157" s="14" t="n">
-        <v>50</v>
-      </c>
+      <c r="D157" s="14"/>
       <c r="E157" s="14" t="s">
         <v>11</v>
       </c>
@@ -5426,9 +5126,7 @@
       <c r="C158" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="14" t="n">
-        <v>50</v>
-      </c>
+      <c r="D158" s="14"/>
       <c r="E158" s="14" t="s">
         <v>11</v>
       </c>
@@ -5443,9 +5141,7 @@
       <c r="C159" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="14" t="n">
-        <v>50</v>
-      </c>
+      <c r="D159" s="14"/>
       <c r="E159" s="14" t="s">
         <v>11</v>
       </c>
@@ -5460,9 +5156,7 @@
       <c r="C160" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="14" t="n">
-        <v>50</v>
-      </c>
+      <c r="D160" s="14"/>
       <c r="E160" s="14" t="s">
         <v>11</v>
       </c>
@@ -5477,9 +5171,7 @@
       <c r="C161" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="14" t="n">
-        <v>51</v>
-      </c>
+      <c r="D161" s="14"/>
       <c r="E161" s="14" t="s">
         <v>11</v>
       </c>
@@ -5494,9 +5186,7 @@
       <c r="C162" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="14" t="n">
-        <v>51</v>
-      </c>
+      <c r="D162" s="14"/>
       <c r="E162" s="14" t="s">
         <v>11</v>
       </c>
@@ -5511,9 +5201,7 @@
       <c r="C163" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="14" t="n">
-        <v>51</v>
-      </c>
+      <c r="D163" s="14"/>
       <c r="E163" s="14" t="s">
         <v>11</v>
       </c>
@@ -5528,9 +5216,7 @@
       <c r="C164" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="14" t="n">
-        <v>51</v>
-      </c>
+      <c r="D164" s="14"/>
       <c r="E164" s="14" t="s">
         <v>11</v>
       </c>
@@ -5545,9 +5231,7 @@
       <c r="C165" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D165" s="14" t="n">
-        <v>52</v>
-      </c>
+      <c r="D165" s="14"/>
       <c r="E165" s="14" t="s">
         <v>11</v>
       </c>
@@ -5562,9 +5246,7 @@
       <c r="C166" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="14" t="n">
-        <v>52</v>
-      </c>
+      <c r="D166" s="14"/>
       <c r="E166" s="14" t="s">
         <v>11</v>
       </c>
@@ -5579,9 +5261,7 @@
       <c r="C167" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D167" s="14" t="n">
-        <v>52</v>
-      </c>
+      <c r="D167" s="14"/>
       <c r="E167" s="14" t="s">
         <v>11</v>
       </c>
@@ -5596,9 +5276,7 @@
       <c r="C168" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D168" s="14" t="n">
-        <v>52</v>
-      </c>
+      <c r="D168" s="14"/>
       <c r="E168" s="14" t="s">
         <v>11</v>
       </c>
@@ -5613,9 +5291,7 @@
       <c r="C169" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D169" s="14" t="n">
-        <v>53</v>
-      </c>
+      <c r="D169" s="14"/>
       <c r="E169" s="14" t="s">
         <v>11</v>
       </c>
@@ -5630,9 +5306,7 @@
       <c r="C170" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D170" s="14" t="n">
-        <v>53</v>
-      </c>
+      <c r="D170" s="14"/>
       <c r="E170" s="14" t="s">
         <v>11</v>
       </c>
@@ -5647,9 +5321,7 @@
       <c r="C171" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D171" s="14" t="n">
-        <v>53</v>
-      </c>
+      <c r="D171" s="14"/>
       <c r="E171" s="14" t="s">
         <v>11</v>
       </c>
@@ -5664,9 +5336,7 @@
       <c r="C172" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="14" t="n">
-        <v>53</v>
-      </c>
+      <c r="D172" s="14"/>
       <c r="E172" s="14" t="s">
         <v>11</v>
       </c>
@@ -5681,9 +5351,7 @@
       <c r="C173" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="14" t="n">
-        <v>54</v>
-      </c>
+      <c r="D173" s="14"/>
       <c r="E173" s="14" t="s">
         <v>11</v>
       </c>
@@ -5698,9 +5366,7 @@
       <c r="C174" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D174" s="14" t="n">
-        <v>54</v>
-      </c>
+      <c r="D174" s="14"/>
       <c r="E174" s="14" t="s">
         <v>11</v>
       </c>
@@ -5715,9 +5381,7 @@
       <c r="C175" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D175" s="14" t="n">
-        <v>54</v>
-      </c>
+      <c r="D175" s="14"/>
       <c r="E175" s="14" t="s">
         <v>11</v>
       </c>
@@ -5732,9 +5396,7 @@
       <c r="C176" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D176" s="14" t="n">
-        <v>54</v>
-      </c>
+      <c r="D176" s="14"/>
       <c r="E176" s="14" t="s">
         <v>11</v>
       </c>
@@ -5749,9 +5411,7 @@
       <c r="C177" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D177" s="14" t="n">
-        <v>55</v>
-      </c>
+      <c r="D177" s="14"/>
       <c r="E177" s="14" t="s">
         <v>11</v>
       </c>
@@ -5766,9 +5426,7 @@
       <c r="C178" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D178" s="14" t="n">
-        <v>55</v>
-      </c>
+      <c r="D178" s="14"/>
       <c r="E178" s="14" t="s">
         <v>11</v>
       </c>
@@ -5783,9 +5441,7 @@
       <c r="C179" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D179" s="14" t="n">
-        <v>55</v>
-      </c>
+      <c r="D179" s="14"/>
       <c r="E179" s="14" t="s">
         <v>11</v>
       </c>
@@ -5800,9 +5456,7 @@
       <c r="C180" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D180" s="14" t="n">
-        <v>55</v>
-      </c>
+      <c r="D180" s="14"/>
       <c r="E180" s="14" t="s">
         <v>11</v>
       </c>
@@ -5817,9 +5471,7 @@
       <c r="C181" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D181" s="14" t="n">
-        <v>56</v>
-      </c>
+      <c r="D181" s="14"/>
       <c r="E181" s="14" t="s">
         <v>11</v>
       </c>
@@ -5834,9 +5486,7 @@
       <c r="C182" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D182" s="14" t="n">
-        <v>56</v>
-      </c>
+      <c r="D182" s="14"/>
       <c r="E182" s="14" t="s">
         <v>11</v>
       </c>
@@ -5851,9 +5501,7 @@
       <c r="C183" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D183" s="14" t="n">
-        <v>56</v>
-      </c>
+      <c r="D183" s="14"/>
       <c r="E183" s="14" t="s">
         <v>11</v>
       </c>
@@ -5868,9 +5516,7 @@
       <c r="C184" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D184" s="14" t="n">
-        <v>56</v>
-      </c>
+      <c r="D184" s="14"/>
       <c r="E184" s="14" t="s">
         <v>11</v>
       </c>
@@ -5885,9 +5531,7 @@
       <c r="C185" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="14" t="n">
-        <v>57</v>
-      </c>
+      <c r="D185" s="14"/>
       <c r="E185" s="14" t="s">
         <v>11</v>
       </c>
@@ -5902,9 +5546,7 @@
       <c r="C186" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D186" s="14" t="n">
-        <v>57</v>
-      </c>
+      <c r="D186" s="14"/>
       <c r="E186" s="14" t="s">
         <v>11</v>
       </c>
@@ -5919,9 +5561,7 @@
       <c r="C187" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D187" s="14" t="n">
-        <v>57</v>
-      </c>
+      <c r="D187" s="14"/>
       <c r="E187" s="14" t="s">
         <v>11</v>
       </c>
@@ -5936,9 +5576,7 @@
       <c r="C188" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="14" t="n">
-        <v>57</v>
-      </c>
+      <c r="D188" s="14"/>
       <c r="E188" s="14" t="s">
         <v>11</v>
       </c>
@@ -5953,9 +5591,7 @@
       <c r="C189" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D189" s="14" t="n">
-        <v>58</v>
-      </c>
+      <c r="D189" s="14"/>
       <c r="E189" s="14" t="s">
         <v>11</v>
       </c>
@@ -5970,9 +5606,7 @@
       <c r="C190" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D190" s="14" t="n">
-        <v>58</v>
-      </c>
+      <c r="D190" s="14"/>
       <c r="E190" s="14" t="s">
         <v>11</v>
       </c>
@@ -5987,9 +5621,7 @@
       <c r="C191" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="14" t="n">
-        <v>58</v>
-      </c>
+      <c r="D191" s="14"/>
       <c r="E191" s="14" t="s">
         <v>11</v>
       </c>
@@ -6004,9 +5636,7 @@
       <c r="C192" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D192" s="14" t="n">
-        <v>59</v>
-      </c>
+      <c r="D192" s="14"/>
       <c r="E192" s="14" t="s">
         <v>11</v>
       </c>
@@ -6021,9 +5651,7 @@
       <c r="C193" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D193" s="14" t="n">
-        <v>59</v>
-      </c>
+      <c r="D193" s="14"/>
       <c r="E193" s="14" t="s">
         <v>11</v>
       </c>
@@ -6038,9 +5666,7 @@
       <c r="C194" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="14" t="n">
-        <v>59</v>
-      </c>
+      <c r="D194" s="14"/>
       <c r="E194" s="14" t="s">
         <v>11</v>
       </c>
@@ -6055,9 +5681,7 @@
       <c r="C195" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="14" t="n">
-        <v>60</v>
-      </c>
+      <c r="D195" s="14"/>
       <c r="E195" s="14" t="s">
         <v>11</v>
       </c>
@@ -6072,9 +5696,7 @@
       <c r="C196" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D196" s="14" t="n">
-        <v>60</v>
-      </c>
+      <c r="D196" s="14"/>
       <c r="E196" s="14" t="s">
         <v>11</v>
       </c>
@@ -6089,9 +5711,7 @@
       <c r="C197" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="14" t="n">
-        <v>60</v>
-      </c>
+      <c r="D197" s="14"/>
       <c r="E197" s="14" t="s">
         <v>11</v>
       </c>
@@ -6106,9 +5726,7 @@
       <c r="C198" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D198" s="14" t="n">
-        <v>61</v>
-      </c>
+      <c r="D198" s="14"/>
       <c r="E198" s="14" t="s">
         <v>11</v>
       </c>
@@ -6123,9 +5741,7 @@
       <c r="C199" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D199" s="14" t="n">
-        <v>61</v>
-      </c>
+      <c r="D199" s="14"/>
       <c r="E199" s="14" t="s">
         <v>11</v>
       </c>
@@ -6140,9 +5756,7 @@
       <c r="C200" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D200" s="14" t="n">
-        <v>61</v>
-      </c>
+      <c r="D200" s="14"/>
       <c r="E200" s="14" t="s">
         <v>11</v>
       </c>
@@ -6157,9 +5771,7 @@
       <c r="C201" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D201" s="14" t="n">
-        <v>62</v>
-      </c>
+      <c r="D201" s="14"/>
       <c r="E201" s="14" t="s">
         <v>11</v>
       </c>
@@ -6174,9 +5786,7 @@
       <c r="C202" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="14" t="n">
-        <v>62</v>
-      </c>
+      <c r="D202" s="14"/>
       <c r="E202" s="14" t="s">
         <v>11</v>
       </c>
@@ -6191,9 +5801,7 @@
       <c r="C203" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D203" s="14" t="n">
-        <v>62</v>
-      </c>
+      <c r="D203" s="14"/>
       <c r="E203" s="14" t="s">
         <v>11</v>
       </c>
@@ -6208,9 +5816,7 @@
       <c r="C204" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D204" s="14" t="n">
-        <v>63</v>
-      </c>
+      <c r="D204" s="14"/>
       <c r="E204" s="14" t="s">
         <v>11</v>
       </c>
@@ -6225,9 +5831,7 @@
       <c r="C205" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D205" s="14" t="n">
-        <v>63</v>
-      </c>
+      <c r="D205" s="14"/>
       <c r="E205" s="14" t="s">
         <v>11</v>
       </c>
@@ -6242,9 +5846,7 @@
       <c r="C206" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D206" s="14" t="n">
-        <v>63</v>
-      </c>
+      <c r="D206" s="14"/>
       <c r="E206" s="14" t="s">
         <v>11</v>
       </c>
@@ -6259,9 +5861,7 @@
       <c r="C207" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D207" s="14" t="n">
-        <v>64</v>
-      </c>
+      <c r="D207" s="14"/>
       <c r="E207" s="14" t="s">
         <v>11</v>
       </c>
@@ -6276,9 +5876,7 @@
       <c r="C208" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D208" s="14" t="n">
-        <v>64</v>
-      </c>
+      <c r="D208" s="14"/>
       <c r="E208" s="14" t="s">
         <v>11</v>
       </c>
@@ -6293,9 +5891,7 @@
       <c r="C209" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D209" s="14" t="n">
-        <v>64</v>
-      </c>
+      <c r="D209" s="14"/>
       <c r="E209" s="14" t="s">
         <v>11</v>
       </c>
@@ -6310,9 +5906,7 @@
       <c r="C210" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D210" s="14" t="n">
-        <v>65</v>
-      </c>
+      <c r="D210" s="14"/>
       <c r="E210" s="14" t="s">
         <v>11</v>
       </c>
@@ -6327,9 +5921,7 @@
       <c r="C211" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D211" s="14" t="n">
-        <v>65</v>
-      </c>
+      <c r="D211" s="14"/>
       <c r="E211" s="14" t="s">
         <v>11</v>
       </c>
@@ -6344,9 +5936,7 @@
       <c r="C212" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D212" s="14" t="n">
-        <v>66</v>
-      </c>
+      <c r="D212" s="14"/>
       <c r="E212" s="14" t="s">
         <v>11</v>
       </c>
@@ -6361,9 +5951,7 @@
       <c r="C213" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D213" s="14" t="n">
-        <v>66</v>
-      </c>
+      <c r="D213" s="14"/>
       <c r="E213" s="14" t="s">
         <v>11</v>
       </c>
@@ -6378,9 +5966,7 @@
       <c r="C214" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D214" s="14" t="n">
-        <v>67</v>
-      </c>
+      <c r="D214" s="14"/>
       <c r="E214" s="14" t="s">
         <v>11</v>
       </c>
@@ -6395,9 +5981,7 @@
       <c r="C215" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D215" s="14" t="n">
-        <v>67</v>
-      </c>
+      <c r="D215" s="14"/>
       <c r="E215" s="14" t="s">
         <v>11</v>
       </c>
@@ -6419,9 +6003,7 @@
       <c r="C217" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D217" s="14" t="n">
-        <v>68</v>
-      </c>
+      <c r="D217" s="14"/>
       <c r="E217" s="14" t="s">
         <v>11</v>
       </c>
@@ -6436,9 +6018,7 @@
       <c r="C218" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D218" s="14" t="n">
-        <v>68</v>
-      </c>
+      <c r="D218" s="14"/>
       <c r="E218" s="14" t="s">
         <v>11</v>
       </c>
@@ -6453,9 +6033,7 @@
       <c r="C219" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D219" s="14" t="n">
-        <v>68</v>
-      </c>
+      <c r="D219" s="14"/>
       <c r="E219" s="14" t="s">
         <v>11</v>
       </c>
@@ -6470,9 +6048,7 @@
       <c r="C220" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D220" s="14" t="n">
-        <v>68</v>
-      </c>
+      <c r="D220" s="14"/>
       <c r="E220" s="14" t="s">
         <v>11</v>
       </c>
@@ -6487,9 +6063,7 @@
       <c r="C221" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D221" s="14" t="n">
-        <v>69</v>
-      </c>
+      <c r="D221" s="14"/>
       <c r="E221" s="14" t="s">
         <v>11</v>
       </c>
@@ -6504,9 +6078,7 @@
       <c r="C222" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D222" s="14" t="n">
-        <v>69</v>
-      </c>
+      <c r="D222" s="14"/>
       <c r="E222" s="14" t="s">
         <v>11</v>
       </c>
@@ -6521,9 +6093,7 @@
       <c r="C223" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D223" s="14" t="n">
-        <v>69</v>
-      </c>
+      <c r="D223" s="14"/>
       <c r="E223" s="14" t="s">
         <v>11</v>
       </c>
@@ -6538,9 +6108,7 @@
       <c r="C224" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D224" s="14" t="n">
-        <v>69</v>
-      </c>
+      <c r="D224" s="14"/>
       <c r="E224" s="14" t="s">
         <v>11</v>
       </c>
@@ -6555,9 +6123,7 @@
       <c r="C225" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D225" s="14" t="n">
-        <v>70</v>
-      </c>
+      <c r="D225" s="14"/>
       <c r="E225" s="14" t="s">
         <v>11</v>
       </c>
@@ -6572,9 +6138,7 @@
       <c r="C226" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D226" s="14" t="n">
-        <v>70</v>
-      </c>
+      <c r="D226" s="14"/>
       <c r="E226" s="14" t="s">
         <v>11</v>
       </c>
@@ -6589,9 +6153,7 @@
       <c r="C227" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D227" s="14" t="n">
-        <v>70</v>
-      </c>
+      <c r="D227" s="14"/>
       <c r="E227" s="14" t="s">
         <v>11</v>
       </c>
@@ -6606,9 +6168,7 @@
       <c r="C228" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D228" s="14" t="n">
-        <v>70</v>
-      </c>
+      <c r="D228" s="14"/>
       <c r="E228" s="14" t="s">
         <v>11</v>
       </c>
@@ -6623,9 +6183,7 @@
       <c r="C229" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D229" s="14" t="n">
-        <v>71</v>
-      </c>
+      <c r="D229" s="14"/>
       <c r="E229" s="14" t="s">
         <v>11</v>
       </c>
@@ -6640,9 +6198,7 @@
       <c r="C230" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D230" s="14" t="n">
-        <v>71</v>
-      </c>
+      <c r="D230" s="14"/>
       <c r="E230" s="14" t="s">
         <v>11</v>
       </c>
@@ -6657,9 +6213,7 @@
       <c r="C231" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D231" s="14" t="n">
-        <v>71</v>
-      </c>
+      <c r="D231" s="14"/>
       <c r="E231" s="14" t="s">
         <v>11</v>
       </c>
@@ -6674,9 +6228,7 @@
       <c r="C232" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D232" s="14" t="n">
-        <v>71</v>
-      </c>
+      <c r="D232" s="14"/>
       <c r="E232" s="14" t="s">
         <v>11</v>
       </c>
@@ -6691,9 +6243,7 @@
       <c r="C233" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D233" s="14" t="n">
-        <v>72</v>
-      </c>
+      <c r="D233" s="14"/>
       <c r="E233" s="14" t="s">
         <v>11</v>
       </c>
@@ -6708,9 +6258,7 @@
       <c r="C234" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D234" s="14" t="n">
-        <v>72</v>
-      </c>
+      <c r="D234" s="14"/>
       <c r="E234" s="14" t="s">
         <v>11</v>
       </c>
@@ -6725,9 +6273,7 @@
       <c r="C235" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D235" s="14" t="n">
-        <v>72</v>
-      </c>
+      <c r="D235" s="14"/>
       <c r="E235" s="14" t="s">
         <v>11</v>
       </c>
@@ -6742,9 +6288,7 @@
       <c r="C236" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D236" s="14" t="n">
-        <v>73</v>
-      </c>
+      <c r="D236" s="14"/>
       <c r="E236" s="14" t="s">
         <v>11</v>
       </c>
@@ -6759,9 +6303,7 @@
       <c r="C237" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D237" s="14" t="n">
-        <v>73</v>
-      </c>
+      <c r="D237" s="14"/>
       <c r="E237" s="14" t="s">
         <v>11</v>
       </c>
@@ -6776,9 +6318,7 @@
       <c r="C238" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D238" s="14" t="n">
-        <v>73</v>
-      </c>
+      <c r="D238" s="14"/>
       <c r="E238" s="14" t="s">
         <v>11</v>
       </c>
@@ -6793,9 +6333,7 @@
       <c r="C239" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D239" s="14" t="n">
-        <v>74</v>
-      </c>
+      <c r="D239" s="14"/>
       <c r="E239" s="14" t="s">
         <v>11</v>
       </c>
@@ -6810,9 +6348,7 @@
       <c r="C240" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D240" s="14" t="n">
-        <v>74</v>
-      </c>
+      <c r="D240" s="14"/>
       <c r="E240" s="14" t="s">
         <v>11</v>
       </c>
@@ -6827,9 +6363,7 @@
       <c r="C241" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D241" s="14" t="n">
-        <v>74</v>
-      </c>
+      <c r="D241" s="14"/>
       <c r="E241" s="14" t="s">
         <v>11</v>
       </c>
@@ -6844,9 +6378,7 @@
       <c r="C242" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D242" s="14" t="n">
-        <v>75</v>
-      </c>
+      <c r="D242" s="14"/>
       <c r="E242" s="14" t="s">
         <v>11</v>
       </c>
@@ -6861,9 +6393,7 @@
       <c r="C243" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D243" s="14" t="n">
-        <v>75</v>
-      </c>
+      <c r="D243" s="14"/>
       <c r="E243" s="14" t="s">
         <v>11</v>
       </c>
@@ -6878,9 +6408,7 @@
       <c r="C244" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D244" s="14" t="n">
-        <v>75</v>
-      </c>
+      <c r="D244" s="14"/>
       <c r="E244" s="14" t="s">
         <v>11</v>
       </c>
@@ -6895,9 +6423,7 @@
       <c r="C245" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D245" s="14" t="n">
-        <v>76</v>
-      </c>
+      <c r="D245" s="14"/>
       <c r="E245" s="14" t="s">
         <v>11</v>
       </c>
@@ -6912,9 +6438,7 @@
       <c r="C246" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D246" s="14" t="n">
-        <v>76</v>
-      </c>
+      <c r="D246" s="14"/>
       <c r="E246" s="14" t="s">
         <v>11</v>
       </c>
@@ -6929,9 +6453,7 @@
       <c r="C247" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D247" s="14" t="n">
-        <v>77</v>
-      </c>
+      <c r="D247" s="14"/>
       <c r="E247" s="14" t="s">
         <v>11</v>
       </c>
@@ -6946,9 +6468,7 @@
       <c r="C248" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D248" s="14" t="n">
-        <v>77</v>
-      </c>
+      <c r="D248" s="14"/>
       <c r="E248" s="14" t="s">
         <v>11</v>
       </c>
@@ -6963,9 +6483,7 @@
       <c r="C249" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D249" s="14" t="n">
-        <v>78</v>
-      </c>
+      <c r="D249" s="14"/>
       <c r="E249" s="14" t="s">
         <v>11</v>
       </c>
@@ -6980,9 +6498,7 @@
       <c r="C250" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D250" s="14" t="n">
-        <v>78</v>
-      </c>
+      <c r="D250" s="14"/>
       <c r="E250" s="14" t="s">
         <v>11</v>
       </c>
@@ -6997,9 +6513,7 @@
       <c r="C251" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D251" s="14" t="n">
-        <v>79</v>
-      </c>
+      <c r="D251" s="14"/>
       <c r="E251" s="14" t="s">
         <v>11</v>
       </c>
@@ -7014,9 +6528,7 @@
       <c r="C252" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D252" s="14" t="n">
-        <v>79</v>
-      </c>
+      <c r="D252" s="14"/>
       <c r="E252" s="14" t="s">
         <v>11</v>
       </c>
@@ -7031,9 +6543,7 @@
       <c r="C253" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D253" s="14" t="n">
-        <v>80</v>
-      </c>
+      <c r="D253" s="14"/>
       <c r="E253" s="14" t="s">
         <v>11</v>
       </c>
@@ -7048,9 +6558,7 @@
       <c r="C254" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D254" s="14" t="n">
-        <v>80</v>
-      </c>
+      <c r="D254" s="14"/>
       <c r="E254" s="14" t="s">
         <v>11</v>
       </c>
@@ -7065,9 +6573,7 @@
       <c r="C255" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D255" s="14" t="n">
-        <v>81</v>
-      </c>
+      <c r="D255" s="14"/>
       <c r="E255" s="14" t="s">
         <v>11</v>
       </c>
@@ -7089,9 +6595,7 @@
       <c r="C257" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D257" s="14" t="n">
-        <v>81</v>
-      </c>
+      <c r="D257" s="14"/>
       <c r="E257" s="14" t="s">
         <v>11</v>
       </c>
@@ -7106,9 +6610,7 @@
       <c r="C258" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D258" s="14" t="n">
-        <v>81</v>
-      </c>
+      <c r="D258" s="14"/>
       <c r="E258" s="14" t="s">
         <v>11</v>
       </c>
@@ -7123,9 +6625,7 @@
       <c r="C259" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D259" s="14" t="n">
-        <v>82</v>
-      </c>
+      <c r="D259" s="14"/>
       <c r="E259" s="14" t="s">
         <v>11</v>
       </c>
@@ -7140,9 +6640,7 @@
       <c r="C260" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D260" s="14" t="n">
-        <v>82</v>
-      </c>
+      <c r="D260" s="14"/>
       <c r="E260" s="14" t="s">
         <v>11</v>
       </c>
@@ -7157,9 +6655,7 @@
       <c r="C261" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D261" s="14" t="n">
-        <v>82</v>
-      </c>
+      <c r="D261" s="14"/>
       <c r="E261" s="14" t="s">
         <v>11</v>
       </c>
@@ -7174,9 +6670,7 @@
       <c r="C262" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D262" s="14" t="n">
-        <v>82</v>
-      </c>
+      <c r="D262" s="14"/>
       <c r="E262" s="14" t="s">
         <v>11</v>
       </c>
@@ -7191,9 +6685,7 @@
       <c r="C263" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D263" s="14" t="n">
-        <v>83</v>
-      </c>
+      <c r="D263" s="14"/>
       <c r="E263" s="14" t="s">
         <v>11</v>
       </c>
@@ -7208,9 +6700,7 @@
       <c r="C264" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D264" s="14" t="n">
-        <v>83</v>
-      </c>
+      <c r="D264" s="14"/>
       <c r="E264" s="14" t="s">
         <v>11</v>
       </c>
@@ -7225,9 +6715,7 @@
       <c r="C265" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D265" s="14" t="n">
-        <v>83</v>
-      </c>
+      <c r="D265" s="14"/>
       <c r="E265" s="14" t="s">
         <v>11</v>
       </c>
@@ -7242,9 +6730,7 @@
       <c r="C266" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D266" s="14" t="n">
-        <v>83</v>
-      </c>
+      <c r="D266" s="14"/>
       <c r="E266" s="14" t="s">
         <v>11</v>
       </c>
@@ -7259,9 +6745,7 @@
       <c r="C267" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D267" s="14" t="n">
-        <v>84</v>
-      </c>
+      <c r="D267" s="14"/>
       <c r="E267" s="14" t="s">
         <v>11</v>
       </c>
@@ -7276,9 +6760,7 @@
       <c r="C268" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D268" s="14" t="n">
-        <v>84</v>
-      </c>
+      <c r="D268" s="14"/>
       <c r="E268" s="14" t="s">
         <v>11</v>
       </c>
@@ -7293,9 +6775,7 @@
       <c r="C269" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D269" s="14" t="n">
-        <v>84</v>
-      </c>
+      <c r="D269" s="14"/>
       <c r="E269" s="14" t="s">
         <v>11</v>
       </c>
@@ -7310,9 +6790,7 @@
       <c r="C270" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D270" s="14" t="n">
-        <v>84</v>
-      </c>
+      <c r="D270" s="14"/>
       <c r="E270" s="14" t="s">
         <v>11</v>
       </c>
@@ -7327,9 +6805,7 @@
       <c r="C271" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="14" t="n">
-        <v>85</v>
-      </c>
+      <c r="D271" s="14"/>
       <c r="E271" s="14" t="s">
         <v>11</v>
       </c>
@@ -7344,9 +6820,7 @@
       <c r="C272" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D272" s="14" t="n">
-        <v>85</v>
-      </c>
+      <c r="D272" s="14"/>
       <c r="E272" s="14" t="s">
         <v>11</v>
       </c>
@@ -7361,9 +6835,7 @@
       <c r="C273" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D273" s="14" t="n">
-        <v>85</v>
-      </c>
+      <c r="D273" s="14"/>
       <c r="E273" s="14" t="s">
         <v>11</v>
       </c>
@@ -7378,9 +6850,7 @@
       <c r="C274" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D274" s="14" t="n">
-        <v>86</v>
-      </c>
+      <c r="D274" s="14"/>
       <c r="E274" s="14" t="s">
         <v>11</v>
       </c>
@@ -7395,9 +6865,7 @@
       <c r="C275" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D275" s="14" t="n">
-        <v>86</v>
-      </c>
+      <c r="D275" s="14"/>
       <c r="E275" s="14" t="s">
         <v>11</v>
       </c>
@@ -7412,9 +6880,7 @@
       <c r="C276" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D276" s="14" t="n">
-        <v>86</v>
-      </c>
+      <c r="D276" s="14"/>
       <c r="E276" s="14" t="s">
         <v>11</v>
       </c>
@@ -7429,9 +6895,7 @@
       <c r="C277" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D277" s="14" t="n">
-        <v>87</v>
-      </c>
+      <c r="D277" s="14"/>
       <c r="E277" s="14" t="s">
         <v>11</v>
       </c>
@@ -7446,9 +6910,7 @@
       <c r="C278" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D278" s="14" t="n">
-        <v>87</v>
-      </c>
+      <c r="D278" s="14"/>
       <c r="E278" s="14" t="s">
         <v>11</v>
       </c>
@@ -7463,9 +6925,7 @@
       <c r="C279" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D279" s="14" t="n">
-        <v>88</v>
-      </c>
+      <c r="D279" s="14"/>
       <c r="E279" s="14" t="s">
         <v>11</v>
       </c>
@@ -7480,9 +6940,7 @@
       <c r="C280" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D280" s="14" t="n">
-        <v>88</v>
-      </c>
+      <c r="D280" s="14"/>
       <c r="E280" s="14" t="s">
         <v>11</v>
       </c>
@@ -7504,9 +6962,7 @@
       <c r="C282" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D282" s="14" t="n">
-        <v>89</v>
-      </c>
+      <c r="D282" s="14"/>
       <c r="E282" s="14" t="s">
         <v>11</v>
       </c>
@@ -7521,9 +6977,7 @@
       <c r="C283" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D283" s="14" t="n">
-        <v>89</v>
-      </c>
+      <c r="D283" s="14"/>
       <c r="E283" s="14" t="s">
         <v>11</v>
       </c>
@@ -7538,9 +6992,7 @@
       <c r="C284" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D284" s="14" t="n">
-        <v>89</v>
-      </c>
+      <c r="D284" s="14"/>
       <c r="E284" s="14" t="s">
         <v>11</v>
       </c>
@@ -7555,9 +7007,7 @@
       <c r="C285" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D285" s="14" t="n">
-        <v>89</v>
-      </c>
+      <c r="D285" s="14"/>
       <c r="E285" s="14" t="s">
         <v>11</v>
       </c>
@@ -7572,9 +7022,7 @@
       <c r="C286" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D286" s="14" t="n">
-        <v>90</v>
-      </c>
+      <c r="D286" s="14"/>
       <c r="E286" s="14" t="s">
         <v>11</v>
       </c>
@@ -7589,9 +7037,7 @@
       <c r="C287" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D287" s="14" t="n">
-        <v>90</v>
-      </c>
+      <c r="D287" s="14"/>
       <c r="E287" s="14" t="s">
         <v>11</v>
       </c>
@@ -7606,9 +7052,7 @@
       <c r="C288" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D288" s="14" t="n">
-        <v>90</v>
-      </c>
+      <c r="D288" s="14"/>
       <c r="E288" s="14" t="s">
         <v>11</v>
       </c>
@@ -7623,9 +7067,7 @@
       <c r="C289" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D289" s="14" t="n">
-        <v>90</v>
-      </c>
+      <c r="D289" s="14"/>
       <c r="E289" s="14" t="s">
         <v>11</v>
       </c>
@@ -7640,9 +7082,7 @@
       <c r="C290" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D290" s="14" t="n">
-        <v>91</v>
-      </c>
+      <c r="D290" s="14"/>
       <c r="E290" s="14" t="s">
         <v>11</v>
       </c>
@@ -7657,9 +7097,7 @@
       <c r="C291" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D291" s="14" t="n">
-        <v>91</v>
-      </c>
+      <c r="D291" s="14"/>
       <c r="E291" s="14" t="s">
         <v>11</v>
       </c>
@@ -7674,9 +7112,7 @@
       <c r="C292" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D292" s="14" t="n">
-        <v>91</v>
-      </c>
+      <c r="D292" s="14"/>
       <c r="E292" s="14" t="s">
         <v>11</v>
       </c>
@@ -7691,9 +7127,7 @@
       <c r="C293" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D293" s="14" t="n">
-        <v>91</v>
-      </c>
+      <c r="D293" s="14"/>
       <c r="E293" s="14" t="s">
         <v>11</v>
       </c>
@@ -7708,9 +7142,7 @@
       <c r="C294" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D294" s="14" t="n">
-        <v>92</v>
-      </c>
+      <c r="D294" s="14"/>
       <c r="E294" s="14" t="s">
         <v>11</v>
       </c>
@@ -7725,9 +7157,7 @@
       <c r="C295" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D295" s="14" t="n">
-        <v>92</v>
-      </c>
+      <c r="D295" s="14"/>
       <c r="E295" s="14" t="s">
         <v>11</v>
       </c>
@@ -7742,9 +7172,7 @@
       <c r="C296" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D296" s="14" t="n">
-        <v>92</v>
-      </c>
+      <c r="D296" s="14"/>
       <c r="E296" s="14" t="s">
         <v>11</v>
       </c>
@@ -7759,9 +7187,7 @@
       <c r="C297" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D297" s="14" t="n">
-        <v>92</v>
-      </c>
+      <c r="D297" s="14"/>
       <c r="E297" s="14" t="s">
         <v>11</v>
       </c>
@@ -7776,9 +7202,7 @@
       <c r="C298" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D298" s="14" t="n">
-        <v>93</v>
-      </c>
+      <c r="D298" s="14"/>
       <c r="E298" s="14" t="s">
         <v>11</v>
       </c>
@@ -7793,9 +7217,7 @@
       <c r="C299" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D299" s="14" t="n">
-        <v>93</v>
-      </c>
+      <c r="D299" s="14"/>
       <c r="E299" s="14" t="s">
         <v>11</v>
       </c>
@@ -7810,9 +7232,7 @@
       <c r="C300" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D300" s="14" t="n">
-        <v>93</v>
-      </c>
+      <c r="D300" s="14"/>
       <c r="E300" s="14" t="s">
         <v>11</v>
       </c>
@@ -7827,9 +7247,7 @@
       <c r="C301" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D301" s="14" t="n">
-        <v>93</v>
-      </c>
+      <c r="D301" s="14"/>
       <c r="E301" s="14" t="s">
         <v>11</v>
       </c>
@@ -7844,9 +7262,7 @@
       <c r="C302" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D302" s="14" t="n">
-        <v>94</v>
-      </c>
+      <c r="D302" s="14"/>
       <c r="E302" s="14" t="s">
         <v>11</v>
       </c>
@@ -7861,9 +7277,7 @@
       <c r="C303" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D303" s="14" t="n">
-        <v>94</v>
-      </c>
+      <c r="D303" s="14"/>
       <c r="E303" s="14" t="s">
         <v>11</v>
       </c>
@@ -7878,9 +7292,7 @@
       <c r="C304" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D304" s="14" t="n">
-        <v>94</v>
-      </c>
+      <c r="D304" s="14"/>
       <c r="E304" s="14" t="s">
         <v>11</v>
       </c>
@@ -7895,9 +7307,7 @@
       <c r="C305" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D305" s="14" t="n">
-        <v>94</v>
-      </c>
+      <c r="D305" s="14"/>
       <c r="E305" s="14" t="s">
         <v>11</v>
       </c>
@@ -7912,9 +7322,7 @@
       <c r="C306" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D306" s="14" t="n">
-        <v>95</v>
-      </c>
+      <c r="D306" s="14"/>
       <c r="E306" s="14" t="s">
         <v>11</v>
       </c>
@@ -7929,9 +7337,7 @@
       <c r="C307" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D307" s="14" t="n">
-        <v>95</v>
-      </c>
+      <c r="D307" s="14"/>
       <c r="E307" s="14" t="s">
         <v>11</v>
       </c>
@@ -7946,9 +7352,7 @@
       <c r="C308" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D308" s="14" t="n">
-        <v>95</v>
-      </c>
+      <c r="D308" s="14"/>
       <c r="E308" s="14" t="s">
         <v>11</v>
       </c>
@@ -7963,9 +7367,7 @@
       <c r="C309" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D309" s="14" t="n">
-        <v>95</v>
-      </c>
+      <c r="D309" s="14"/>
       <c r="E309" s="14" t="s">
         <v>11</v>
       </c>
@@ -7980,9 +7382,7 @@
       <c r="C310" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D310" s="14" t="n">
-        <v>96</v>
-      </c>
+      <c r="D310" s="14"/>
       <c r="E310" s="14" t="s">
         <v>11</v>
       </c>
@@ -7997,9 +7397,7 @@
       <c r="C311" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D311" s="14" t="n">
-        <v>96</v>
-      </c>
+      <c r="D311" s="14"/>
       <c r="E311" s="14" t="s">
         <v>11</v>
       </c>
@@ -8014,9 +7412,7 @@
       <c r="C312" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D312" s="14" t="n">
-        <v>96</v>
-      </c>
+      <c r="D312" s="14"/>
       <c r="E312" s="14" t="s">
         <v>11</v>
       </c>
@@ -8031,9 +7427,7 @@
       <c r="C313" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D313" s="14" t="n">
-        <v>97</v>
-      </c>
+      <c r="D313" s="14"/>
       <c r="E313" s="14" t="s">
         <v>11</v>
       </c>
@@ -8048,9 +7442,7 @@
       <c r="C314" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D314" s="14" t="n">
-        <v>97</v>
-      </c>
+      <c r="D314" s="14"/>
       <c r="E314" s="14" t="s">
         <v>11</v>
       </c>
@@ -8065,9 +7457,7 @@
       <c r="C315" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D315" s="14" t="n">
-        <v>97</v>
-      </c>
+      <c r="D315" s="14"/>
       <c r="E315" s="14" t="s">
         <v>11</v>
       </c>
@@ -8082,9 +7472,7 @@
       <c r="C316" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D316" s="14" t="n">
-        <v>98</v>
-      </c>
+      <c r="D316" s="14"/>
       <c r="E316" s="14" t="s">
         <v>11</v>
       </c>
@@ -8099,9 +7487,7 @@
       <c r="C317" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D317" s="14" t="n">
-        <v>98</v>
-      </c>
+      <c r="D317" s="14"/>
       <c r="E317" s="14" t="s">
         <v>11</v>
       </c>
@@ -8116,9 +7502,7 @@
       <c r="C318" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D318" s="14" t="n">
-        <v>98</v>
-      </c>
+      <c r="D318" s="14"/>
       <c r="E318" s="14" t="s">
         <v>11</v>
       </c>
@@ -8133,9 +7517,7 @@
       <c r="C319" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D319" s="14" t="n">
-        <v>99</v>
-      </c>
+      <c r="D319" s="14"/>
       <c r="E319" s="14" t="s">
         <v>11</v>
       </c>
@@ -8150,9 +7532,7 @@
       <c r="C320" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D320" s="14" t="n">
-        <v>99</v>
-      </c>
+      <c r="D320" s="14"/>
       <c r="E320" s="14" t="s">
         <v>11</v>
       </c>
@@ -8167,9 +7547,7 @@
       <c r="C321" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D321" s="14" t="n">
-        <v>99</v>
-      </c>
+      <c r="D321" s="14"/>
       <c r="E321" s="14" t="s">
         <v>11</v>
       </c>
@@ -8184,9 +7562,7 @@
       <c r="C322" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D322" s="14" t="n">
-        <v>100</v>
-      </c>
+      <c r="D322" s="14"/>
       <c r="E322" s="14" t="s">
         <v>11</v>
       </c>
@@ -8201,9 +7577,7 @@
       <c r="C323" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D323" s="14" t="n">
-        <v>100</v>
-      </c>
+      <c r="D323" s="14"/>
       <c r="E323" s="14" t="s">
         <v>11</v>
       </c>
@@ -8218,9 +7592,7 @@
       <c r="C324" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D324" s="14" t="n">
-        <v>100</v>
-      </c>
+      <c r="D324" s="14"/>
       <c r="E324" s="14" t="s">
         <v>11</v>
       </c>
@@ -8235,9 +7607,7 @@
       <c r="C325" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D325" s="14" t="n">
-        <v>101</v>
-      </c>
+      <c r="D325" s="14"/>
       <c r="E325" s="14" t="s">
         <v>11</v>
       </c>
@@ -8252,9 +7622,7 @@
       <c r="C326" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D326" s="14" t="n">
-        <v>101</v>
-      </c>
+      <c r="D326" s="14"/>
       <c r="E326" s="14" t="s">
         <v>11</v>
       </c>
@@ -8269,9 +7637,7 @@
       <c r="C327" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D327" s="14" t="n">
-        <v>101</v>
-      </c>
+      <c r="D327" s="14"/>
       <c r="E327" s="14" t="s">
         <v>11</v>
       </c>
@@ -8286,9 +7652,7 @@
       <c r="C328" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D328" s="14" t="n">
-        <v>102</v>
-      </c>
+      <c r="D328" s="14"/>
       <c r="E328" s="14" t="s">
         <v>11</v>
       </c>
@@ -8303,9 +7667,7 @@
       <c r="C329" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D329" s="14" t="n">
-        <v>102</v>
-      </c>
+      <c r="D329" s="14"/>
       <c r="E329" s="14" t="s">
         <v>11</v>
       </c>
@@ -8320,9 +7682,7 @@
       <c r="C330" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D330" s="14" t="n">
-        <v>102</v>
-      </c>
+      <c r="D330" s="14"/>
       <c r="E330" s="14" t="s">
         <v>11</v>
       </c>
@@ -8337,9 +7697,7 @@
       <c r="C331" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D331" s="14" t="n">
-        <v>103</v>
-      </c>
+      <c r="D331" s="14"/>
       <c r="E331" s="14" t="s">
         <v>11</v>
       </c>
@@ -8354,9 +7712,7 @@
       <c r="C332" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D332" s="14" t="n">
-        <v>103</v>
-      </c>
+      <c r="D332" s="14"/>
       <c r="E332" s="14" t="s">
         <v>11</v>
       </c>
@@ -8371,9 +7727,7 @@
       <c r="C333" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D333" s="14" t="n">
-        <v>103</v>
-      </c>
+      <c r="D333" s="14"/>
       <c r="E333" s="14" t="s">
         <v>11</v>
       </c>
@@ -8388,9 +7742,7 @@
       <c r="C334" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D334" s="14" t="n">
-        <v>104</v>
-      </c>
+      <c r="D334" s="14"/>
       <c r="E334" s="14" t="s">
         <v>11</v>
       </c>
@@ -8405,9 +7757,7 @@
       <c r="C335" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D335" s="14" t="n">
-        <v>104</v>
-      </c>
+      <c r="D335" s="14"/>
       <c r="E335" s="14" t="s">
         <v>11</v>
       </c>
@@ -8422,9 +7772,7 @@
       <c r="C336" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D336" s="14" t="n">
-        <v>105</v>
-      </c>
+      <c r="D336" s="14"/>
       <c r="E336" s="14" t="s">
         <v>11</v>
       </c>
@@ -8439,9 +7787,7 @@
       <c r="C337" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D337" s="14" t="n">
-        <v>105</v>
-      </c>
+      <c r="D337" s="14"/>
       <c r="E337" s="14" t="s">
         <v>11</v>
       </c>
@@ -8456,9 +7802,7 @@
       <c r="C338" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D338" s="14" t="n">
-        <v>106</v>
-      </c>
+      <c r="D338" s="14"/>
       <c r="E338" s="14" t="s">
         <v>11</v>
       </c>
@@ -8473,9 +7817,7 @@
       <c r="C339" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D339" s="14" t="n">
-        <v>106</v>
-      </c>
+      <c r="D339" s="14"/>
       <c r="E339" s="14" t="s">
         <v>11</v>
       </c>
@@ -8490,9 +7832,7 @@
       <c r="C340" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D340" s="14" t="n">
-        <v>107</v>
-      </c>
+      <c r="D340" s="14"/>
       <c r="E340" s="14" t="s">
         <v>11</v>
       </c>
@@ -8507,9 +7847,7 @@
       <c r="C341" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D341" s="14" t="n">
-        <v>107</v>
-      </c>
+      <c r="D341" s="14"/>
       <c r="E341" s="14" t="s">
         <v>11</v>
       </c>
@@ -8531,9 +7869,7 @@
       <c r="C343" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D343" s="14" t="n">
-        <v>108</v>
-      </c>
+      <c r="D343" s="14"/>
       <c r="E343" s="14" t="s">
         <v>11</v>
       </c>
@@ -8548,9 +7884,7 @@
       <c r="C344" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D344" s="14" t="n">
-        <v>108</v>
-      </c>
+      <c r="D344" s="14"/>
       <c r="E344" s="14" t="s">
         <v>11</v>
       </c>
@@ -8565,9 +7899,7 @@
       <c r="C345" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D345" s="14" t="n">
-        <v>108</v>
-      </c>
+      <c r="D345" s="14"/>
       <c r="E345" s="14" t="s">
         <v>11</v>
       </c>
@@ -8582,9 +7914,7 @@
       <c r="C346" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D346" s="14" t="n">
-        <v>108</v>
-      </c>
+      <c r="D346" s="14"/>
       <c r="E346" s="14" t="s">
         <v>11</v>
       </c>
@@ -8599,9 +7929,7 @@
       <c r="C347" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D347" s="14" t="n">
-        <v>109</v>
-      </c>
+      <c r="D347" s="14"/>
       <c r="E347" s="14" t="s">
         <v>11</v>
       </c>
@@ -8616,9 +7944,7 @@
       <c r="C348" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D348" s="14" t="n">
-        <v>109</v>
-      </c>
+      <c r="D348" s="14"/>
       <c r="E348" s="14" t="s">
         <v>11</v>
       </c>
@@ -8633,9 +7959,7 @@
       <c r="C349" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D349" s="14" t="n">
-        <v>109</v>
-      </c>
+      <c r="D349" s="14"/>
       <c r="E349" s="14" t="s">
         <v>11</v>
       </c>
@@ -8650,9 +7974,7 @@
       <c r="C350" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D350" s="14" t="n">
-        <v>109</v>
-      </c>
+      <c r="D350" s="14"/>
       <c r="E350" s="14" t="s">
         <v>11</v>
       </c>
@@ -8667,9 +7989,7 @@
       <c r="C351" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D351" s="14" t="n">
-        <v>110</v>
-      </c>
+      <c r="D351" s="14"/>
       <c r="E351" s="14" t="s">
         <v>11</v>
       </c>
@@ -8684,9 +8004,7 @@
       <c r="C352" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D352" s="14" t="n">
-        <v>110</v>
-      </c>
+      <c r="D352" s="14"/>
       <c r="E352" s="14" t="s">
         <v>11</v>
       </c>
@@ -8701,9 +8019,7 @@
       <c r="C353" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D353" s="14" t="n">
-        <v>110</v>
-      </c>
+      <c r="D353" s="14"/>
       <c r="E353" s="14" t="s">
         <v>11</v>
       </c>
@@ -8718,9 +8034,7 @@
       <c r="C354" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D354" s="14" t="n">
-        <v>110</v>
-      </c>
+      <c r="D354" s="14"/>
       <c r="E354" s="14" t="s">
         <v>11</v>
       </c>
@@ -8735,9 +8049,7 @@
       <c r="C355" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D355" s="14" t="n">
-        <v>111</v>
-      </c>
+      <c r="D355" s="14"/>
       <c r="E355" s="14" t="s">
         <v>11</v>
       </c>
@@ -8752,9 +8064,7 @@
       <c r="C356" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D356" s="14" t="n">
-        <v>111</v>
-      </c>
+      <c r="D356" s="14"/>
       <c r="E356" s="14" t="s">
         <v>11</v>
       </c>
@@ -8769,9 +8079,7 @@
       <c r="C357" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D357" s="14" t="n">
-        <v>111</v>
-      </c>
+      <c r="D357" s="14"/>
       <c r="E357" s="14" t="s">
         <v>11</v>
       </c>
@@ -8786,9 +8094,7 @@
       <c r="C358" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D358" s="14" t="n">
-        <v>111</v>
-      </c>
+      <c r="D358" s="14"/>
       <c r="E358" s="14" t="s">
         <v>11</v>
       </c>
@@ -8803,9 +8109,7 @@
       <c r="C359" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D359" s="14" t="n">
-        <v>112</v>
-      </c>
+      <c r="D359" s="14"/>
       <c r="E359" s="14" t="s">
         <v>11</v>
       </c>
@@ -8820,9 +8124,7 @@
       <c r="C360" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D360" s="14" t="n">
-        <v>112</v>
-      </c>
+      <c r="D360" s="14"/>
       <c r="E360" s="14" t="s">
         <v>11</v>
       </c>
@@ -8837,9 +8139,7 @@
       <c r="C361" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D361" s="14" t="n">
-        <v>112</v>
-      </c>
+      <c r="D361" s="14"/>
       <c r="E361" s="14" t="s">
         <v>11</v>
       </c>
@@ -8854,9 +8154,7 @@
       <c r="C362" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D362" s="14" t="n">
-        <v>112</v>
-      </c>
+      <c r="D362" s="14"/>
       <c r="E362" s="14" t="s">
         <v>11</v>
       </c>
@@ -8871,9 +8169,7 @@
       <c r="C363" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D363" s="14" t="n">
-        <v>113</v>
-      </c>
+      <c r="D363" s="14"/>
       <c r="E363" s="14" t="s">
         <v>11</v>
       </c>
@@ -8888,9 +8184,7 @@
       <c r="C364" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D364" s="14" t="n">
-        <v>113</v>
-      </c>
+      <c r="D364" s="14"/>
       <c r="E364" s="14" t="s">
         <v>11</v>
       </c>
@@ -8905,9 +8199,7 @@
       <c r="C365" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D365" s="14" t="n">
-        <v>113</v>
-      </c>
+      <c r="D365" s="14"/>
       <c r="E365" s="14" t="s">
         <v>11</v>
       </c>
@@ -8922,9 +8214,7 @@
       <c r="C366" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D366" s="14" t="n">
-        <v>114</v>
-      </c>
+      <c r="D366" s="14"/>
       <c r="E366" s="14" t="s">
         <v>11</v>
       </c>
@@ -8939,9 +8229,7 @@
       <c r="C367" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D367" s="14" t="n">
-        <v>114</v>
-      </c>
+      <c r="D367" s="14"/>
       <c r="E367" s="14" t="s">
         <v>11</v>
       </c>
@@ -8956,9 +8244,7 @@
       <c r="C368" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D368" s="14" t="n">
-        <v>114</v>
-      </c>
+      <c r="D368" s="14"/>
       <c r="E368" s="14" t="s">
         <v>11</v>
       </c>
@@ -8973,9 +8259,7 @@
       <c r="C369" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D369" s="14" t="n">
-        <v>115</v>
-      </c>
+      <c r="D369" s="14"/>
       <c r="E369" s="14" t="s">
         <v>11</v>
       </c>
@@ -8990,9 +8274,7 @@
       <c r="C370" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D370" s="14" t="n">
-        <v>115</v>
-      </c>
+      <c r="D370" s="14"/>
       <c r="E370" s="14" t="s">
         <v>11</v>
       </c>
@@ -9007,9 +8289,7 @@
       <c r="C371" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D371" s="14" t="n">
-        <v>115</v>
-      </c>
+      <c r="D371" s="14"/>
       <c r="E371" s="14" t="s">
         <v>11</v>
       </c>
@@ -9024,9 +8304,7 @@
       <c r="C372" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D372" s="14" t="n">
-        <v>116</v>
-      </c>
+      <c r="D372" s="14"/>
       <c r="E372" s="14" t="s">
         <v>11</v>
       </c>
@@ -9041,9 +8319,7 @@
       <c r="C373" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D373" s="14" t="n">
-        <v>116</v>
-      </c>
+      <c r="D373" s="14"/>
       <c r="E373" s="14" t="s">
         <v>11</v>
       </c>
@@ -9058,9 +8334,7 @@
       <c r="C374" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D374" s="14" t="n">
-        <v>116</v>
-      </c>
+      <c r="D374" s="14"/>
       <c r="E374" s="14" t="s">
         <v>11</v>
       </c>
@@ -9075,9 +8349,7 @@
       <c r="C375" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D375" s="14" t="n">
-        <v>117</v>
-      </c>
+      <c r="D375" s="14"/>
       <c r="E375" s="14" t="s">
         <v>11</v>
       </c>
@@ -9092,9 +8364,7 @@
       <c r="C376" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D376" s="14" t="n">
-        <v>117</v>
-      </c>
+      <c r="D376" s="14"/>
       <c r="E376" s="14" t="s">
         <v>11</v>
       </c>
@@ -9109,9 +8379,7 @@
       <c r="C377" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D377" s="14" t="n">
-        <v>117</v>
-      </c>
+      <c r="D377" s="14"/>
       <c r="E377" s="14" t="s">
         <v>11</v>
       </c>
@@ -9126,9 +8394,7 @@
       <c r="C378" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D378" s="14" t="n">
-        <v>118</v>
-      </c>
+      <c r="D378" s="14"/>
       <c r="E378" s="14" t="s">
         <v>11</v>
       </c>
@@ -9143,9 +8409,7 @@
       <c r="C379" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D379" s="14" t="n">
-        <v>118</v>
-      </c>
+      <c r="D379" s="14"/>
       <c r="E379" s="14" t="s">
         <v>11</v>
       </c>
@@ -9160,9 +8424,7 @@
       <c r="C380" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D380" s="14" t="n">
-        <v>118</v>
-      </c>
+      <c r="D380" s="14"/>
       <c r="E380" s="14" t="s">
         <v>11</v>
       </c>
@@ -9177,9 +8439,7 @@
       <c r="C381" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D381" s="14" t="n">
-        <v>119</v>
-      </c>
+      <c r="D381" s="14"/>
       <c r="E381" s="14" t="s">
         <v>11</v>
       </c>
@@ -9194,9 +8454,7 @@
       <c r="C382" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D382" s="14" t="n">
-        <v>119</v>
-      </c>
+      <c r="D382" s="14"/>
       <c r="E382" s="14" t="s">
         <v>11</v>
       </c>
@@ -9211,9 +8469,7 @@
       <c r="C383" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D383" s="14" t="n">
-        <v>120</v>
-      </c>
+      <c r="D383" s="14"/>
       <c r="E383" s="14" t="s">
         <v>11</v>
       </c>
@@ -9228,9 +8484,7 @@
       <c r="C384" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D384" s="14" t="n">
-        <v>120</v>
-      </c>
+      <c r="D384" s="14"/>
       <c r="E384" s="14" t="s">
         <v>11</v>
       </c>
@@ -9245,9 +8499,7 @@
       <c r="C385" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D385" s="14" t="n">
-        <v>120</v>
-      </c>
+      <c r="D385" s="14"/>
       <c r="E385" s="14" t="s">
         <v>11</v>
       </c>
@@ -9262,9 +8514,7 @@
       <c r="C386" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D386" s="14" t="n">
-        <v>120</v>
-      </c>
+      <c r="D386" s="14"/>
       <c r="E386" s="14" t="s">
         <v>11</v>
       </c>
@@ -9286,9 +8536,7 @@
       <c r="C388" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D388" s="14" t="n">
-        <v>121</v>
-      </c>
+      <c r="D388" s="14"/>
       <c r="E388" s="14" t="s">
         <v>11</v>
       </c>
@@ -9303,9 +8551,7 @@
       <c r="C389" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D389" s="14" t="n">
-        <v>121</v>
-      </c>
+      <c r="D389" s="14"/>
       <c r="E389" s="14" t="s">
         <v>11</v>
       </c>
@@ -9320,9 +8566,7 @@
       <c r="C390" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D390" s="14" t="n">
-        <v>121</v>
-      </c>
+      <c r="D390" s="14"/>
       <c r="E390" s="14" t="s">
         <v>11</v>
       </c>
@@ -9337,9 +8581,7 @@
       <c r="C391" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D391" s="14" t="n">
-        <v>121</v>
-      </c>
+      <c r="D391" s="14"/>
       <c r="E391" s="14" t="s">
         <v>11</v>
       </c>
@@ -9354,9 +8596,7 @@
       <c r="C392" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D392" s="14" t="n">
-        <v>122</v>
-      </c>
+      <c r="D392" s="14"/>
       <c r="E392" s="14" t="s">
         <v>11</v>
       </c>
@@ -9371,9 +8611,7 @@
       <c r="C393" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D393" s="14" t="n">
-        <v>122</v>
-      </c>
+      <c r="D393" s="14"/>
       <c r="E393" s="14" t="s">
         <v>11</v>
       </c>
@@ -9388,9 +8626,7 @@
       <c r="C394" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D394" s="14" t="n">
-        <v>122</v>
-      </c>
+      <c r="D394" s="14"/>
       <c r="E394" s="14" t="s">
         <v>11</v>
       </c>
@@ -9405,9 +8641,7 @@
       <c r="C395" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D395" s="14" t="n">
-        <v>122</v>
-      </c>
+      <c r="D395" s="14"/>
       <c r="E395" s="14" t="s">
         <v>11</v>
       </c>
@@ -9422,9 +8656,7 @@
       <c r="C396" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D396" s="14" t="n">
-        <v>123</v>
-      </c>
+      <c r="D396" s="14"/>
       <c r="E396" s="14" t="s">
         <v>11</v>
       </c>
@@ -9439,9 +8671,7 @@
       <c r="C397" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D397" s="14" t="n">
-        <v>123</v>
-      </c>
+      <c r="D397" s="14"/>
       <c r="E397" s="14" t="s">
         <v>11</v>
       </c>
@@ -9456,9 +8686,7 @@
       <c r="C398" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D398" s="14" t="n">
-        <v>123</v>
-      </c>
+      <c r="D398" s="14"/>
       <c r="E398" s="14" t="s">
         <v>11</v>
       </c>
@@ -9473,9 +8701,7 @@
       <c r="C399" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D399" s="14" t="n">
-        <v>123</v>
-      </c>
+      <c r="D399" s="14"/>
       <c r="E399" s="14" t="s">
         <v>11</v>
       </c>
@@ -9490,9 +8716,7 @@
       <c r="C400" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D400" s="14" t="n">
-        <v>123</v>
-      </c>
+      <c r="D400" s="14"/>
       <c r="E400" s="14" t="s">
         <v>11</v>
       </c>
@@ -9507,9 +8731,7 @@
       <c r="C401" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D401" s="14" t="n">
-        <v>124</v>
-      </c>
+      <c r="D401" s="14"/>
       <c r="E401" s="14" t="s">
         <v>11</v>
       </c>
@@ -9524,9 +8746,7 @@
       <c r="C402" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D402" s="14" t="n">
-        <v>124</v>
-      </c>
+      <c r="D402" s="14"/>
       <c r="E402" s="14" t="s">
         <v>11</v>
       </c>
@@ -9541,9 +8761,7 @@
       <c r="C403" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D403" s="14" t="n">
-        <v>124</v>
-      </c>
+      <c r="D403" s="14"/>
       <c r="E403" s="14" t="s">
         <v>11</v>
       </c>
@@ -9558,9 +8776,7 @@
       <c r="C404" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D404" s="14" t="n">
-        <v>124</v>
-      </c>
+      <c r="D404" s="14"/>
       <c r="E404" s="14" t="s">
         <v>11</v>
       </c>
@@ -9575,9 +8791,7 @@
       <c r="C405" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D405" s="14" t="n">
-        <v>125</v>
-      </c>
+      <c r="D405" s="14"/>
       <c r="E405" s="14" t="s">
         <v>11</v>
       </c>
@@ -9592,9 +8806,7 @@
       <c r="C406" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D406" s="14" t="n">
-        <v>125</v>
-      </c>
+      <c r="D406" s="14"/>
       <c r="E406" s="14" t="s">
         <v>11</v>
       </c>
@@ -9609,9 +8821,7 @@
       <c r="C407" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D407" s="14" t="n">
-        <v>125</v>
-      </c>
+      <c r="D407" s="14"/>
       <c r="E407" s="14" t="s">
         <v>11</v>
       </c>
@@ -9626,9 +8836,7 @@
       <c r="C408" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D408" s="14" t="n">
-        <v>126</v>
-      </c>
+      <c r="D408" s="14"/>
       <c r="E408" s="14" t="s">
         <v>11</v>
       </c>
@@ -9643,9 +8851,7 @@
       <c r="C409" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D409" s="14" t="n">
-        <v>126</v>
-      </c>
+      <c r="D409" s="14"/>
       <c r="E409" s="14" t="s">
         <v>11</v>
       </c>
@@ -9660,9 +8866,7 @@
       <c r="C410" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D410" s="14" t="n">
-        <v>126</v>
-      </c>
+      <c r="D410" s="14"/>
       <c r="E410" s="14" t="s">
         <v>11</v>
       </c>
@@ -9677,9 +8881,7 @@
       <c r="C411" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D411" s="14" t="n">
-        <v>127</v>
-      </c>
+      <c r="D411" s="14"/>
       <c r="E411" s="14" t="s">
         <v>11</v>
       </c>
@@ -9694,9 +8896,7 @@
       <c r="C412" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D412" s="14" t="n">
-        <v>127</v>
-      </c>
+      <c r="D412" s="14"/>
       <c r="E412" s="14" t="s">
         <v>11</v>
       </c>
@@ -9711,9 +8911,7 @@
       <c r="C413" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D413" s="14" t="n">
-        <v>127</v>
-      </c>
+      <c r="D413" s="14"/>
       <c r="E413" s="14" t="s">
         <v>11</v>
       </c>
@@ -9728,9 +8926,7 @@
       <c r="C414" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D414" s="14" t="n">
-        <v>128</v>
-      </c>
+      <c r="D414" s="14"/>
       <c r="E414" s="14" t="s">
         <v>11</v>
       </c>
@@ -9745,9 +8941,7 @@
       <c r="C415" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D415" s="14" t="n">
-        <v>128</v>
-      </c>
+      <c r="D415" s="14"/>
       <c r="E415" s="14" t="s">
         <v>11</v>
       </c>
@@ -9762,9 +8956,7 @@
       <c r="C416" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D416" s="14" t="n">
-        <v>128</v>
-      </c>
+      <c r="D416" s="14"/>
       <c r="E416" s="14" t="s">
         <v>11</v>
       </c>
@@ -9779,9 +8971,7 @@
       <c r="C417" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D417" s="14" t="n">
-        <v>129</v>
-      </c>
+      <c r="D417" s="14"/>
       <c r="E417" s="14" t="s">
         <v>11</v>
       </c>
@@ -9796,9 +8986,7 @@
       <c r="C418" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D418" s="14" t="n">
-        <v>129</v>
-      </c>
+      <c r="D418" s="14"/>
       <c r="E418" s="14" t="s">
         <v>11</v>
       </c>
@@ -9813,9 +9001,7 @@
       <c r="C419" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D419" s="14" t="n">
-        <v>130</v>
-      </c>
+      <c r="D419" s="14"/>
       <c r="E419" s="14" t="s">
         <v>11</v>
       </c>
@@ -9830,9 +9016,7 @@
       <c r="C420" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D420" s="14" t="n">
-        <v>130</v>
-      </c>
+      <c r="D420" s="14"/>
       <c r="E420" s="14" t="s">
         <v>11</v>
       </c>
@@ -9847,9 +9031,7 @@
       <c r="C421" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D421" s="14" t="n">
-        <v>131</v>
-      </c>
+      <c r="D421" s="14"/>
       <c r="E421" s="14" t="s">
         <v>11</v>
       </c>
@@ -9864,9 +9046,7 @@
       <c r="C422" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D422" s="14" t="n">
-        <v>131</v>
-      </c>
+      <c r="D422" s="14"/>
       <c r="E422" s="14" t="s">
         <v>11</v>
       </c>
@@ -9881,9 +9061,7 @@
       <c r="C423" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D423" s="14" t="n">
-        <v>132</v>
-      </c>
+      <c r="D423" s="14"/>
       <c r="E423" s="14" t="s">
         <v>11</v>
       </c>
@@ -9905,9 +9083,7 @@
       <c r="C425" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D425" s="14" t="n">
-        <v>132</v>
-      </c>
+      <c r="D425" s="14"/>
       <c r="E425" s="14" t="s">
         <v>11</v>
       </c>
@@ -9922,9 +9098,7 @@
       <c r="C426" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D426" s="14" t="n">
-        <v>132</v>
-      </c>
+      <c r="D426" s="14"/>
       <c r="E426" s="14" t="s">
         <v>11</v>
       </c>
@@ -9939,9 +9113,7 @@
       <c r="C427" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D427" s="14" t="n">
-        <v>133</v>
-      </c>
+      <c r="D427" s="14"/>
       <c r="E427" s="14" t="s">
         <v>11</v>
       </c>
@@ -9956,9 +9128,7 @@
       <c r="C428" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D428" s="14" t="n">
-        <v>133</v>
-      </c>
+      <c r="D428" s="14"/>
       <c r="E428" s="14" t="s">
         <v>11</v>
       </c>
@@ -9973,9 +9143,7 @@
       <c r="C429" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D429" s="14" t="n">
-        <v>133</v>
-      </c>
+      <c r="D429" s="14"/>
       <c r="E429" s="14" t="s">
         <v>11</v>
       </c>
@@ -9990,9 +9158,7 @@
       <c r="C430" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D430" s="14" t="n">
-        <v>133</v>
-      </c>
+      <c r="D430" s="14"/>
       <c r="E430" s="14" t="s">
         <v>11</v>
       </c>
@@ -10007,9 +9173,7 @@
       <c r="C431" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D431" s="14" t="n">
-        <v>134</v>
-      </c>
+      <c r="D431" s="14"/>
       <c r="E431" s="14" t="s">
         <v>11</v>
       </c>
@@ -10024,9 +9188,7 @@
       <c r="C432" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D432" s="14" t="n">
-        <v>134</v>
-      </c>
+      <c r="D432" s="14"/>
       <c r="E432" s="14" t="s">
         <v>11</v>
       </c>
@@ -10041,9 +9203,7 @@
       <c r="C433" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D433" s="14" t="n">
-        <v>134</v>
-      </c>
+      <c r="D433" s="14"/>
       <c r="E433" s="14" t="s">
         <v>11</v>
       </c>
@@ -10058,9 +9218,7 @@
       <c r="C434" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D434" s="14" t="n">
-        <v>134</v>
-      </c>
+      <c r="D434" s="14"/>
       <c r="E434" s="14" t="s">
         <v>11</v>
       </c>
@@ -10075,9 +9233,7 @@
       <c r="C435" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D435" s="14" t="n">
-        <v>135</v>
-      </c>
+      <c r="D435" s="14"/>
       <c r="E435" s="14" t="s">
         <v>11</v>
       </c>
@@ -10092,9 +9248,7 @@
       <c r="C436" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D436" s="14" t="n">
-        <v>135</v>
-      </c>
+      <c r="D436" s="14"/>
       <c r="E436" s="14" t="s">
         <v>11</v>
       </c>
@@ -10109,9 +9263,7 @@
       <c r="C437" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D437" s="14" t="n">
-        <v>135</v>
-      </c>
+      <c r="D437" s="14"/>
       <c r="E437" s="14" t="s">
         <v>11</v>
       </c>
@@ -10126,9 +9278,7 @@
       <c r="C438" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D438" s="14" t="n">
-        <v>135</v>
-      </c>
+      <c r="D438" s="14"/>
       <c r="E438" s="14" t="s">
         <v>11</v>
       </c>
@@ -10143,9 +9293,7 @@
       <c r="C439" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D439" s="14" t="n">
-        <v>136</v>
-      </c>
+      <c r="D439" s="14"/>
       <c r="E439" s="14" t="s">
         <v>11</v>
       </c>
@@ -10160,9 +9308,7 @@
       <c r="C440" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D440" s="14" t="n">
-        <v>136</v>
-      </c>
+      <c r="D440" s="14"/>
       <c r="E440" s="14" t="s">
         <v>11</v>
       </c>
@@ -10177,9 +9323,7 @@
       <c r="C441" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D441" s="14" t="n">
-        <v>136</v>
-      </c>
+      <c r="D441" s="14"/>
       <c r="E441" s="14" t="s">
         <v>11</v>
       </c>
@@ -10194,9 +9338,7 @@
       <c r="C442" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D442" s="14" t="n">
-        <v>136</v>
-      </c>
+      <c r="D442" s="14"/>
       <c r="E442" s="14" t="s">
         <v>11</v>
       </c>
@@ -10211,9 +9353,7 @@
       <c r="C443" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D443" s="14" t="n">
-        <v>137</v>
-      </c>
+      <c r="D443" s="14"/>
       <c r="E443" s="14" t="s">
         <v>11</v>
       </c>
@@ -10228,9 +9368,7 @@
       <c r="C444" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D444" s="14" t="n">
-        <v>137</v>
-      </c>
+      <c r="D444" s="14"/>
       <c r="E444" s="14" t="s">
         <v>11</v>
       </c>
@@ -10245,9 +9383,7 @@
       <c r="C445" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D445" s="14" t="n">
-        <v>137</v>
-      </c>
+      <c r="D445" s="14"/>
       <c r="E445" s="14" t="s">
         <v>11</v>
       </c>
@@ -10262,9 +9398,7 @@
       <c r="C446" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D446" s="14" t="n">
-        <v>138</v>
-      </c>
+      <c r="D446" s="14"/>
       <c r="E446" s="14" t="s">
         <v>11</v>
       </c>
@@ -10279,9 +9413,7 @@
       <c r="C447" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D447" s="14" t="n">
-        <v>138</v>
-      </c>
+      <c r="D447" s="14"/>
       <c r="E447" s="14" t="s">
         <v>11</v>
       </c>
@@ -10296,9 +9428,7 @@
       <c r="C448" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D448" s="14" t="n">
-        <v>138</v>
-      </c>
+      <c r="D448" s="14"/>
       <c r="E448" s="14" t="s">
         <v>11</v>
       </c>
@@ -10313,9 +9443,7 @@
       <c r="C449" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D449" s="14" t="n">
-        <v>138</v>
-      </c>
+      <c r="D449" s="14"/>
       <c r="E449" s="14" t="s">
         <v>11</v>
       </c>
@@ -10330,9 +9458,7 @@
       <c r="C450" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D450" s="14" t="n">
-        <v>139</v>
-      </c>
+      <c r="D450" s="14"/>
       <c r="E450" s="14" t="s">
         <v>11</v>
       </c>
@@ -10347,9 +9473,7 @@
       <c r="C451" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D451" s="14" t="n">
-        <v>139</v>
-      </c>
+      <c r="D451" s="14"/>
       <c r="E451" s="14" t="s">
         <v>11</v>
       </c>
@@ -10364,9 +9488,7 @@
       <c r="C452" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D452" s="14" t="n">
-        <v>139</v>
-      </c>
+      <c r="D452" s="14"/>
       <c r="E452" s="14" t="s">
         <v>11</v>
       </c>
@@ -10381,9 +9503,7 @@
       <c r="C453" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D453" s="14" t="n">
-        <v>140</v>
-      </c>
+      <c r="D453" s="14"/>
       <c r="E453" s="14" t="s">
         <v>11</v>
       </c>
@@ -10398,9 +9518,7 @@
       <c r="C454" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D454" s="14" t="n">
-        <v>140</v>
-      </c>
+      <c r="D454" s="14"/>
       <c r="E454" s="14" t="s">
         <v>11</v>
       </c>
@@ -10415,9 +9533,7 @@
       <c r="C455" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D455" s="14" t="n">
-        <v>140</v>
-      </c>
+      <c r="D455" s="14"/>
       <c r="E455" s="14" t="s">
         <v>11</v>
       </c>
@@ -10432,9 +9548,7 @@
       <c r="C456" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D456" s="14" t="n">
-        <v>141</v>
-      </c>
+      <c r="D456" s="14"/>
       <c r="E456" s="14" t="s">
         <v>11</v>
       </c>
@@ -10449,9 +9563,7 @@
       <c r="C457" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D457" s="14" t="n">
-        <v>141</v>
-      </c>
+      <c r="D457" s="14"/>
       <c r="E457" s="14" t="s">
         <v>11</v>
       </c>
@@ -10466,9 +9578,7 @@
       <c r="C458" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D458" s="14" t="n">
-        <v>141</v>
-      </c>
+      <c r="D458" s="14"/>
       <c r="E458" s="14" t="s">
         <v>11</v>
       </c>
@@ -10483,9 +9593,7 @@
       <c r="C459" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D459" s="14" t="n">
-        <v>142</v>
-      </c>
+      <c r="D459" s="14"/>
       <c r="E459" s="14" t="s">
         <v>11</v>
       </c>
@@ -10500,9 +9608,7 @@
       <c r="C460" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D460" s="14" t="n">
-        <v>142</v>
-      </c>
+      <c r="D460" s="14"/>
       <c r="E460" s="14" t="s">
         <v>11</v>
       </c>
@@ -10517,9 +9623,7 @@
       <c r="C461" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D461" s="14" t="n">
-        <v>143</v>
-      </c>
+      <c r="D461" s="14"/>
       <c r="E461" s="14" t="s">
         <v>11</v>
       </c>
@@ -10534,9 +9638,7 @@
       <c r="C462" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D462" s="14" t="n">
-        <v>143</v>
-      </c>
+      <c r="D462" s="14"/>
       <c r="E462" s="14" t="s">
         <v>11</v>
       </c>
@@ -10551,9 +9653,7 @@
       <c r="C463" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D463" s="14" t="n">
-        <v>144</v>
-      </c>
+      <c r="D463" s="14"/>
       <c r="E463" s="14" t="s">
         <v>11</v>
       </c>
@@ -10568,9 +9668,7 @@
       <c r="C464" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D464" s="14" t="n">
-        <v>144</v>
-      </c>
+      <c r="D464" s="14"/>
       <c r="E464" s="14" t="s">
         <v>11</v>
       </c>
@@ -10585,9 +9683,7 @@
       <c r="C465" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D465" s="14" t="n">
-        <v>145</v>
-      </c>
+      <c r="D465" s="14"/>
       <c r="E465" s="14" t="s">
         <v>11</v>
       </c>
@@ -10602,9 +9698,7 @@
       <c r="C466" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D466" s="14" t="n">
-        <v>145</v>
-      </c>
+      <c r="D466" s="14"/>
       <c r="E466" s="14" t="s">
         <v>11</v>
       </c>
@@ -10619,9 +9713,7 @@
       <c r="C467" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D467" s="14" t="n">
-        <v>146</v>
-      </c>
+      <c r="D467" s="14"/>
       <c r="E467" s="14" t="s">
         <v>11</v>
       </c>
@@ -10636,9 +9728,7 @@
       <c r="C468" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D468" s="14" t="n">
-        <v>146</v>
-      </c>
+      <c r="D468" s="14"/>
       <c r="E468" s="14" t="s">
         <v>11</v>
       </c>
@@ -10653,9 +9743,7 @@
       <c r="C469" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D469" s="14" t="n">
-        <v>147</v>
-      </c>
+      <c r="D469" s="14"/>
       <c r="E469" s="14" t="s">
         <v>11</v>
       </c>
@@ -10670,9 +9758,7 @@
       <c r="C470" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D470" s="14" t="n">
-        <v>147</v>
-      </c>
+      <c r="D470" s="14"/>
       <c r="E470" s="14" t="s">
         <v>11</v>
       </c>
@@ -10694,9 +9780,7 @@
       <c r="C472" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D472" s="14" t="n">
-        <v>148</v>
-      </c>
+      <c r="D472" s="14"/>
       <c r="E472" s="14" t="s">
         <v>11</v>
       </c>
@@ -10711,9 +9795,7 @@
       <c r="C473" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D473" s="14" t="n">
-        <v>148</v>
-      </c>
+      <c r="D473" s="14"/>
       <c r="E473" s="14" t="s">
         <v>11</v>
       </c>
@@ -10728,9 +9810,7 @@
       <c r="C474" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D474" s="14" t="n">
-        <v>148</v>
-      </c>
+      <c r="D474" s="14"/>
       <c r="E474" s="14" t="s">
         <v>11</v>
       </c>
@@ -10745,9 +9825,7 @@
       <c r="C475" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D475" s="14" t="n">
-        <v>148</v>
-      </c>
+      <c r="D475" s="14"/>
       <c r="E475" s="14" t="s">
         <v>11</v>
       </c>
@@ -10762,9 +9840,7 @@
       <c r="C476" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D476" s="14" t="n">
-        <v>149</v>
-      </c>
+      <c r="D476" s="14"/>
       <c r="E476" s="14" t="s">
         <v>11</v>
       </c>
@@ -10779,9 +9855,7 @@
       <c r="C477" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D477" s="14" t="n">
-        <v>149</v>
-      </c>
+      <c r="D477" s="14"/>
       <c r="E477" s="14" t="s">
         <v>11</v>
       </c>
@@ -10796,9 +9870,7 @@
       <c r="C478" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D478" s="14" t="n">
-        <v>149</v>
-      </c>
+      <c r="D478" s="14"/>
       <c r="E478" s="14" t="s">
         <v>11</v>
       </c>
@@ -10813,9 +9885,7 @@
       <c r="C479" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D479" s="14" t="n">
-        <v>149</v>
-      </c>
+      <c r="D479" s="14"/>
       <c r="E479" s="14" t="s">
         <v>11</v>
       </c>
@@ -10830,9 +9900,7 @@
       <c r="C480" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D480" s="14" t="n">
-        <v>150</v>
-      </c>
+      <c r="D480" s="14"/>
       <c r="E480" s="14" t="s">
         <v>11</v>
       </c>
@@ -10847,9 +9915,7 @@
       <c r="C481" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D481" s="14" t="n">
-        <v>150</v>
-      </c>
+      <c r="D481" s="14"/>
       <c r="E481" s="14" t="s">
         <v>11</v>
       </c>
@@ -10864,9 +9930,7 @@
       <c r="C482" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D482" s="14" t="n">
-        <v>150</v>
-      </c>
+      <c r="D482" s="14"/>
       <c r="E482" s="14" t="s">
         <v>11</v>
       </c>
@@ -10881,9 +9945,7 @@
       <c r="C483" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D483" s="14" t="n">
-        <v>151</v>
-      </c>
+      <c r="D483" s="14"/>
       <c r="E483" s="14" t="s">
         <v>11</v>
       </c>
@@ -10898,9 +9960,7 @@
       <c r="C484" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D484" s="14" t="n">
-        <v>151</v>
-      </c>
+      <c r="D484" s="14"/>
       <c r="E484" s="14" t="s">
         <v>11</v>
       </c>
@@ -10915,9 +9975,7 @@
       <c r="C485" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D485" s="14" t="n">
-        <v>151</v>
-      </c>
+      <c r="D485" s="14"/>
       <c r="E485" s="14" t="s">
         <v>11</v>
       </c>
@@ -10932,9 +9990,7 @@
       <c r="C486" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D486" s="14" t="n">
-        <v>152</v>
-      </c>
+      <c r="D486" s="14"/>
       <c r="E486" s="14" t="s">
         <v>11</v>
       </c>
@@ -10949,9 +10005,7 @@
       <c r="C487" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D487" s="14" t="n">
-        <v>152</v>
-      </c>
+      <c r="D487" s="14"/>
       <c r="E487" s="14" t="s">
         <v>11</v>
       </c>
@@ -10966,9 +10020,7 @@
       <c r="C488" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D488" s="14" t="n">
-        <v>152</v>
-      </c>
+      <c r="D488" s="14"/>
       <c r="E488" s="14" t="s">
         <v>11</v>
       </c>
@@ -10983,9 +10035,7 @@
       <c r="C489" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D489" s="14" t="n">
-        <v>153</v>
-      </c>
+      <c r="D489" s="14"/>
       <c r="E489" s="14" t="s">
         <v>11</v>
       </c>
@@ -11000,9 +10050,7 @@
       <c r="C490" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D490" s="14" t="n">
-        <v>153</v>
-      </c>
+      <c r="D490" s="14"/>
       <c r="E490" s="14" t="s">
         <v>11</v>
       </c>
@@ -11017,9 +10065,7 @@
       <c r="C491" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D491" s="14" t="n">
-        <v>153</v>
-      </c>
+      <c r="D491" s="14"/>
       <c r="E491" s="14" t="s">
         <v>11</v>
       </c>
@@ -11034,9 +10080,7 @@
       <c r="C492" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D492" s="14" t="n">
-        <v>154</v>
-      </c>
+      <c r="D492" s="14"/>
       <c r="E492" s="14" t="s">
         <v>11</v>
       </c>
@@ -11051,9 +10095,7 @@
       <c r="C493" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D493" s="14" t="n">
-        <v>154</v>
-      </c>
+      <c r="D493" s="14"/>
       <c r="E493" s="14" t="s">
         <v>11</v>
       </c>
@@ -11068,9 +10110,7 @@
       <c r="C494" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D494" s="14" t="n">
-        <v>154</v>
-      </c>
+      <c r="D494" s="14"/>
       <c r="E494" s="14" t="s">
         <v>11</v>
       </c>
@@ -11085,9 +10125,7 @@
       <c r="C495" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D495" s="14" t="n">
-        <v>155</v>
-      </c>
+      <c r="D495" s="14"/>
       <c r="E495" s="14" t="s">
         <v>11</v>
       </c>
@@ -11102,9 +10140,7 @@
       <c r="C496" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D496" s="14" t="n">
-        <v>155</v>
-      </c>
+      <c r="D496" s="14"/>
       <c r="E496" s="14" t="s">
         <v>11</v>
       </c>
@@ -11119,9 +10155,7 @@
       <c r="C497" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D497" s="14" t="n">
-        <v>156</v>
-      </c>
+      <c r="D497" s="14"/>
       <c r="E497" s="14" t="s">
         <v>11</v>
       </c>
@@ -11136,9 +10170,7 @@
       <c r="C498" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D498" s="14" t="n">
-        <v>156</v>
-      </c>
+      <c r="D498" s="14"/>
       <c r="E498" s="14" t="s">
         <v>11</v>
       </c>
@@ -11160,9 +10192,7 @@
       <c r="C500" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D500" s="14" t="n">
-        <v>157</v>
-      </c>
+      <c r="D500" s="14"/>
       <c r="E500" s="14" t="s">
         <v>11</v>
       </c>
@@ -11177,9 +10207,7 @@
       <c r="C501" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D501" s="14" t="n">
-        <v>157</v>
-      </c>
+      <c r="D501" s="14"/>
       <c r="E501" s="14" t="s">
         <v>11</v>
       </c>
@@ -11194,9 +10222,7 @@
       <c r="C502" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D502" s="14" t="n">
-        <v>157</v>
-      </c>
+      <c r="D502" s="14"/>
       <c r="E502" s="14" t="s">
         <v>11</v>
       </c>
@@ -11211,9 +10237,7 @@
       <c r="C503" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D503" s="14" t="n">
-        <v>157</v>
-      </c>
+      <c r="D503" s="14"/>
       <c r="E503" s="14" t="s">
         <v>11</v>
       </c>
@@ -11228,9 +10252,7 @@
       <c r="C504" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D504" s="14" t="n">
-        <v>158</v>
-      </c>
+      <c r="D504" s="14"/>
       <c r="E504" s="14" t="s">
         <v>11</v>
       </c>
@@ -11245,9 +10267,7 @@
       <c r="C505" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D505" s="14" t="n">
-        <v>158</v>
-      </c>
+      <c r="D505" s="14"/>
       <c r="E505" s="14" t="s">
         <v>11</v>
       </c>
@@ -11262,9 +10282,7 @@
       <c r="C506" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D506" s="14" t="n">
-        <v>158</v>
-      </c>
+      <c r="D506" s="14"/>
       <c r="E506" s="14" t="s">
         <v>11</v>
       </c>
@@ -11279,9 +10297,7 @@
       <c r="C507" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D507" s="14" t="n">
-        <v>158</v>
-      </c>
+      <c r="D507" s="14"/>
       <c r="E507" s="14" t="s">
         <v>11</v>
       </c>
@@ -11296,9 +10312,7 @@
       <c r="C508" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D508" s="14" t="n">
-        <v>159</v>
-      </c>
+      <c r="D508" s="14"/>
       <c r="E508" s="14" t="s">
         <v>11</v>
       </c>
@@ -11313,9 +10327,7 @@
       <c r="C509" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D509" s="14" t="n">
-        <v>159</v>
-      </c>
+      <c r="D509" s="14"/>
       <c r="E509" s="14" t="s">
         <v>11</v>
       </c>
@@ -11330,9 +10342,7 @@
       <c r="C510" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D510" s="14" t="n">
-        <v>159</v>
-      </c>
+      <c r="D510" s="14"/>
       <c r="E510" s="14" t="s">
         <v>11</v>
       </c>
@@ -11347,9 +10357,7 @@
       <c r="C511" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D511" s="14" t="n">
-        <v>159</v>
-      </c>
+      <c r="D511" s="14"/>
       <c r="E511" s="14" t="s">
         <v>11</v>
       </c>
@@ -11364,9 +10372,7 @@
       <c r="C512" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D512" s="14" t="n">
-        <v>160</v>
-      </c>
+      <c r="D512" s="14"/>
       <c r="E512" s="14" t="s">
         <v>11</v>
       </c>
@@ -11381,9 +10387,7 @@
       <c r="C513" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D513" s="14" t="n">
-        <v>160</v>
-      </c>
+      <c r="D513" s="14"/>
       <c r="E513" s="14" t="s">
         <v>11</v>
       </c>
@@ -11398,9 +10402,7 @@
       <c r="C514" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D514" s="14" t="n">
-        <v>160</v>
-      </c>
+      <c r="D514" s="14"/>
       <c r="E514" s="14" t="s">
         <v>11</v>
       </c>
@@ -11415,9 +10417,7 @@
       <c r="C515" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D515" s="14" t="n">
-        <v>161</v>
-      </c>
+      <c r="D515" s="14"/>
       <c r="E515" s="14" t="s">
         <v>11</v>
       </c>
@@ -11432,9 +10432,7 @@
       <c r="C516" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D516" s="14" t="n">
-        <v>161</v>
-      </c>
+      <c r="D516" s="14"/>
       <c r="E516" s="14" t="s">
         <v>11</v>
       </c>
@@ -11449,9 +10447,7 @@
       <c r="C517" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D517" s="14" t="n">
-        <v>161</v>
-      </c>
+      <c r="D517" s="14"/>
       <c r="E517" s="14" t="s">
         <v>11</v>
       </c>
@@ -11466,9 +10462,7 @@
       <c r="C518" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D518" s="14" t="n">
-        <v>162</v>
-      </c>
+      <c r="D518" s="14"/>
       <c r="E518" s="14" t="s">
         <v>11</v>
       </c>
@@ -11483,9 +10477,7 @@
       <c r="C519" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D519" s="14" t="n">
-        <v>162</v>
-      </c>
+      <c r="D519" s="14"/>
       <c r="E519" s="14" t="s">
         <v>11</v>
       </c>
@@ -11500,9 +10492,7 @@
       <c r="C520" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D520" s="14" t="n">
-        <v>162</v>
-      </c>
+      <c r="D520" s="14"/>
       <c r="E520" s="14" t="s">
         <v>11</v>
       </c>
@@ -11517,9 +10507,7 @@
       <c r="C521" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D521" s="14" t="n">
-        <v>163</v>
-      </c>
+      <c r="D521" s="14"/>
       <c r="E521" s="14" t="s">
         <v>11</v>
       </c>
@@ -11534,9 +10522,7 @@
       <c r="C522" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D522" s="14" t="n">
-        <v>163</v>
-      </c>
+      <c r="D522" s="14"/>
       <c r="E522" s="14" t="s">
         <v>11</v>
       </c>
@@ -11551,9 +10537,7 @@
       <c r="C523" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D523" s="14" t="n">
-        <v>163</v>
-      </c>
+      <c r="D523" s="14"/>
       <c r="E523" s="14" t="s">
         <v>11</v>
       </c>
@@ -11568,9 +10552,7 @@
       <c r="C524" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D524" s="14" t="n">
-        <v>164</v>
-      </c>
+      <c r="D524" s="14"/>
       <c r="E524" s="14" t="s">
         <v>11</v>
       </c>
@@ -11585,9 +10567,7 @@
       <c r="C525" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D525" s="14" t="n">
-        <v>164</v>
-      </c>
+      <c r="D525" s="14"/>
       <c r="E525" s="14" t="s">
         <v>11</v>
       </c>
@@ -11602,9 +10582,7 @@
       <c r="C526" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D526" s="14" t="n">
-        <v>164</v>
-      </c>
+      <c r="D526" s="14"/>
       <c r="E526" s="14" t="s">
         <v>11</v>
       </c>
@@ -11619,9 +10597,7 @@
       <c r="C527" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D527" s="14" t="n">
-        <v>165</v>
-      </c>
+      <c r="D527" s="14"/>
       <c r="E527" s="14" t="s">
         <v>11</v>
       </c>
@@ -11636,9 +10612,7 @@
       <c r="C528" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D528" s="14" t="n">
-        <v>165</v>
-      </c>
+      <c r="D528" s="14"/>
       <c r="E528" s="14" t="s">
         <v>11</v>
       </c>
@@ -11660,9 +10634,7 @@
       <c r="C530" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D530" s="14" t="n">
-        <v>166</v>
-      </c>
+      <c r="D530" s="14"/>
       <c r="E530" s="14" t="s">
         <v>11</v>
       </c>
@@ -11677,9 +10649,7 @@
       <c r="C531" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D531" s="14" t="n">
-        <v>166</v>
-      </c>
+      <c r="D531" s="14"/>
       <c r="E531" s="14" t="s">
         <v>11</v>
       </c>
@@ -11694,9 +10664,7 @@
       <c r="C532" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D532" s="14" t="n">
-        <v>166</v>
-      </c>
+      <c r="D532" s="14"/>
       <c r="E532" s="14" t="s">
         <v>11</v>
       </c>
@@ -11711,9 +10679,7 @@
       <c r="C533" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D533" s="14" t="n">
-        <v>166</v>
-      </c>
+      <c r="D533" s="14"/>
       <c r="E533" s="14" t="s">
         <v>11</v>
       </c>
@@ -11728,9 +10694,7 @@
       <c r="C534" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D534" s="14" t="n">
-        <v>167</v>
-      </c>
+      <c r="D534" s="14"/>
       <c r="E534" s="14" t="s">
         <v>11</v>
       </c>
@@ -11745,9 +10709,7 @@
       <c r="C535" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D535" s="14" t="n">
-        <v>167</v>
-      </c>
+      <c r="D535" s="14"/>
       <c r="E535" s="14" t="s">
         <v>11</v>
       </c>
@@ -11762,9 +10724,7 @@
       <c r="C536" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D536" s="14" t="n">
-        <v>167</v>
-      </c>
+      <c r="D536" s="14"/>
       <c r="E536" s="14" t="s">
         <v>11</v>
       </c>
@@ -11779,9 +10739,7 @@
       <c r="C537" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D537" s="14" t="n">
-        <v>167</v>
-      </c>
+      <c r="D537" s="14"/>
       <c r="E537" s="14" t="s">
         <v>11</v>
       </c>
@@ -11796,9 +10754,7 @@
       <c r="C538" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D538" s="14" t="n">
-        <v>168</v>
-      </c>
+      <c r="D538" s="14"/>
       <c r="E538" s="14" t="s">
         <v>11</v>
       </c>
@@ -11813,9 +10769,7 @@
       <c r="C539" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D539" s="14" t="n">
-        <v>168</v>
-      </c>
+      <c r="D539" s="14"/>
       <c r="E539" s="14" t="s">
         <v>11</v>
       </c>
@@ -11830,9 +10784,7 @@
       <c r="C540" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D540" s="14" t="n">
-        <v>168</v>
-      </c>
+      <c r="D540" s="14"/>
       <c r="E540" s="14" t="s">
         <v>11</v>
       </c>
@@ -11847,9 +10799,7 @@
       <c r="C541" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D541" s="14" t="n">
-        <v>168</v>
-      </c>
+      <c r="D541" s="14"/>
       <c r="E541" s="14" t="s">
         <v>11</v>
       </c>
@@ -11864,9 +10814,7 @@
       <c r="C542" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D542" s="14" t="n">
-        <v>169</v>
-      </c>
+      <c r="D542" s="14"/>
       <c r="E542" s="14" t="s">
         <v>11</v>
       </c>
@@ -11881,9 +10829,7 @@
       <c r="C543" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D543" s="14" t="n">
-        <v>169</v>
-      </c>
+      <c r="D543" s="14"/>
       <c r="E543" s="14" t="s">
         <v>11</v>
       </c>
@@ -11898,9 +10844,7 @@
       <c r="C544" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D544" s="14" t="n">
-        <v>169</v>
-      </c>
+      <c r="D544" s="14"/>
       <c r="E544" s="14" t="s">
         <v>11</v>
       </c>
@@ -11915,9 +10859,7 @@
       <c r="C545" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D545" s="14" t="n">
-        <v>169</v>
-      </c>
+      <c r="D545" s="14"/>
       <c r="E545" s="14" t="s">
         <v>11</v>
       </c>
@@ -11932,9 +10874,7 @@
       <c r="C546" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D546" s="14" t="n">
-        <v>170</v>
-      </c>
+      <c r="D546" s="14"/>
       <c r="E546" s="14" t="s">
         <v>11</v>
       </c>
@@ -11949,9 +10889,7 @@
       <c r="C547" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D547" s="14" t="n">
-        <v>170</v>
-      </c>
+      <c r="D547" s="14"/>
       <c r="E547" s="14" t="s">
         <v>11</v>
       </c>
@@ -11966,9 +10904,7 @@
       <c r="C548" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D548" s="14" t="n">
-        <v>170</v>
-      </c>
+      <c r="D548" s="14"/>
       <c r="E548" s="14" t="s">
         <v>11</v>
       </c>
@@ -11983,9 +10919,7 @@
       <c r="C549" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D549" s="14" t="n">
-        <v>171</v>
-      </c>
+      <c r="D549" s="14"/>
       <c r="E549" s="14" t="s">
         <v>11</v>
       </c>
@@ -12000,9 +10934,7 @@
       <c r="C550" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D550" s="14" t="n">
-        <v>171</v>
-      </c>
+      <c r="D550" s="14"/>
       <c r="E550" s="14" t="s">
         <v>11</v>
       </c>
@@ -12017,9 +10949,7 @@
       <c r="C551" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D551" s="14" t="n">
-        <v>171</v>
-      </c>
+      <c r="D551" s="14"/>
       <c r="E551" s="14" t="s">
         <v>11</v>
       </c>
@@ -12034,9 +10964,7 @@
       <c r="C552" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D552" s="14" t="n">
-        <v>172</v>
-      </c>
+      <c r="D552" s="14"/>
       <c r="E552" s="14" t="s">
         <v>11</v>
       </c>
@@ -12051,9 +10979,7 @@
       <c r="C553" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D553" s="14" t="n">
-        <v>172</v>
-      </c>
+      <c r="D553" s="14"/>
       <c r="E553" s="14" t="s">
         <v>11</v>
       </c>
@@ -12068,9 +10994,7 @@
       <c r="C554" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D554" s="14" t="n">
-        <v>172</v>
-      </c>
+      <c r="D554" s="14"/>
       <c r="E554" s="14" t="s">
         <v>11</v>
       </c>
@@ -12085,9 +11009,7 @@
       <c r="C555" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D555" s="14" t="n">
-        <v>173</v>
-      </c>
+      <c r="D555" s="14"/>
       <c r="E555" s="14" t="s">
         <v>11</v>
       </c>
@@ -12102,9 +11024,7 @@
       <c r="C556" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D556" s="14" t="n">
-        <v>173</v>
-      </c>
+      <c r="D556" s="14"/>
       <c r="E556" s="14" t="s">
         <v>11</v>
       </c>
@@ -12119,9 +11039,7 @@
       <c r="C557" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D557" s="14" t="n">
-        <v>173</v>
-      </c>
+      <c r="D557" s="14"/>
       <c r="E557" s="14" t="s">
         <v>11</v>
       </c>
@@ -12136,9 +11054,7 @@
       <c r="C558" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D558" s="14" t="n">
-        <v>174</v>
-      </c>
+      <c r="D558" s="14"/>
       <c r="E558" s="14" t="s">
         <v>11</v>
       </c>
@@ -12153,9 +11069,7 @@
       <c r="C559" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D559" s="14" t="n">
-        <v>174</v>
-      </c>
+      <c r="D559" s="14"/>
       <c r="E559" s="14" t="s">
         <v>11</v>
       </c>
@@ -12170,9 +11084,7 @@
       <c r="C560" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D560" s="14" t="n">
-        <v>174</v>
-      </c>
+      <c r="D560" s="14"/>
       <c r="E560" s="14" t="s">
         <v>11</v>
       </c>
@@ -12187,9 +11099,7 @@
       <c r="C561" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D561" s="14" t="n">
-        <v>175</v>
-      </c>
+      <c r="D561" s="14"/>
       <c r="E561" s="14" t="s">
         <v>11</v>
       </c>
@@ -12204,9 +11114,7 @@
       <c r="C562" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D562" s="14" t="n">
-        <v>175</v>
-      </c>
+      <c r="D562" s="14"/>
       <c r="E562" s="14" t="s">
         <v>11</v>
       </c>
@@ -12221,9 +11129,7 @@
       <c r="C563" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D563" s="14" t="n">
-        <v>175</v>
-      </c>
+      <c r="D563" s="14"/>
       <c r="E563" s="14" t="s">
         <v>11</v>
       </c>
@@ -12238,9 +11144,7 @@
       <c r="C564" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D564" s="14" t="n">
-        <v>176</v>
-      </c>
+      <c r="D564" s="14"/>
       <c r="E564" s="14" t="s">
         <v>11</v>
       </c>
@@ -12255,9 +11159,7 @@
       <c r="C565" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D565" s="14" t="n">
-        <v>176</v>
-      </c>
+      <c r="D565" s="14"/>
       <c r="E565" s="14" t="s">
         <v>11</v>
       </c>
@@ -12272,9 +11174,7 @@
       <c r="C566" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D566" s="14" t="n">
-        <v>176</v>
-      </c>
+      <c r="D566" s="14"/>
       <c r="E566" s="14" t="s">
         <v>11</v>
       </c>
@@ -12289,9 +11189,7 @@
       <c r="C567" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D567" s="14" t="n">
-        <v>177</v>
-      </c>
+      <c r="D567" s="14"/>
       <c r="E567" s="14" t="s">
         <v>11</v>
       </c>
@@ -12306,9 +11204,7 @@
       <c r="C568" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D568" s="14" t="n">
-        <v>177</v>
-      </c>
+      <c r="D568" s="14"/>
       <c r="E568" s="14" t="s">
         <v>11</v>
       </c>
@@ -12323,9 +11219,7 @@
       <c r="C569" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D569" s="14" t="n">
-        <v>177</v>
-      </c>
+      <c r="D569" s="14"/>
       <c r="E569" s="14" t="s">
         <v>11</v>
       </c>
@@ -12340,9 +11234,7 @@
       <c r="C570" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D570" s="14" t="n">
-        <v>178</v>
-      </c>
+      <c r="D570" s="14"/>
       <c r="E570" s="14" t="s">
         <v>11</v>
       </c>
@@ -12357,9 +11249,7 @@
       <c r="C571" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D571" s="14" t="n">
-        <v>178</v>
-      </c>
+      <c r="D571" s="14"/>
       <c r="E571" s="14" t="s">
         <v>11</v>
       </c>
@@ -12374,9 +11264,7 @@
       <c r="C572" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D572" s="14" t="n">
-        <v>178</v>
-      </c>
+      <c r="D572" s="14"/>
       <c r="E572" s="14" t="s">
         <v>11</v>
       </c>
@@ -12391,9 +11279,7 @@
       <c r="C573" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D573" s="14" t="n">
-        <v>179</v>
-      </c>
+      <c r="D573" s="14"/>
       <c r="E573" s="14" t="s">
         <v>11</v>
       </c>
@@ -12408,9 +11294,7 @@
       <c r="C574" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D574" s="14" t="n">
-        <v>179</v>
-      </c>
+      <c r="D574" s="14"/>
       <c r="E574" s="14" t="s">
         <v>11</v>
       </c>
@@ -12425,9 +11309,7 @@
       <c r="C575" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D575" s="14" t="n">
-        <v>179</v>
-      </c>
+      <c r="D575" s="14"/>
       <c r="E575" s="14" t="s">
         <v>11</v>
       </c>
@@ -12442,9 +11324,7 @@
       <c r="C576" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D576" s="14" t="n">
-        <v>180</v>
-      </c>
+      <c r="D576" s="14"/>
       <c r="E576" s="14" t="s">
         <v>11</v>
       </c>
@@ -12459,9 +11339,7 @@
       <c r="C577" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D577" s="14" t="n">
-        <v>180</v>
-      </c>
+      <c r="D577" s="14"/>
       <c r="E577" s="14" t="s">
         <v>11</v>
       </c>
@@ -12476,9 +11354,7 @@
       <c r="C578" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D578" s="14" t="n">
-        <v>180</v>
-      </c>
+      <c r="D578" s="14"/>
       <c r="E578" s="14" t="s">
         <v>11</v>
       </c>
@@ -12493,9 +11369,7 @@
       <c r="C579" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D579" s="14" t="n">
-        <v>181</v>
-      </c>
+      <c r="D579" s="14"/>
       <c r="E579" s="14" t="s">
         <v>11</v>
       </c>
@@ -12510,9 +11384,7 @@
       <c r="C580" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D580" s="14" t="n">
-        <v>181</v>
-      </c>
+      <c r="D580" s="14"/>
       <c r="E580" s="14" t="s">
         <v>11</v>
       </c>
@@ -12527,9 +11399,7 @@
       <c r="C581" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D581" s="14" t="n">
-        <v>181</v>
-      </c>
+      <c r="D581" s="14"/>
       <c r="E581" s="14" t="s">
         <v>11</v>
       </c>
@@ -12544,9 +11414,7 @@
       <c r="C582" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D582" s="14" t="n">
-        <v>182</v>
-      </c>
+      <c r="D582" s="14"/>
       <c r="E582" s="14" t="s">
         <v>11</v>
       </c>
@@ -12561,9 +11429,7 @@
       <c r="C583" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D583" s="14" t="n">
-        <v>182</v>
-      </c>
+      <c r="D583" s="14"/>
       <c r="E583" s="14" t="s">
         <v>11</v>
       </c>
@@ -12578,9 +11444,7 @@
       <c r="C584" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D584" s="14" t="n">
-        <v>183</v>
-      </c>
+      <c r="D584" s="14"/>
       <c r="E584" s="14" t="s">
         <v>11</v>
       </c>
@@ -12595,9 +11459,7 @@
       <c r="C585" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D585" s="14" t="n">
-        <v>183</v>
-      </c>
+      <c r="D585" s="14"/>
       <c r="E585" s="14" t="s">
         <v>11</v>
       </c>
@@ -12612,9 +11474,7 @@
       <c r="C586" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D586" s="14" t="n">
-        <v>184</v>
-      </c>
+      <c r="D586" s="14"/>
       <c r="E586" s="14" t="s">
         <v>11</v>
       </c>
@@ -12629,9 +11489,7 @@
       <c r="C587" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D587" s="14" t="n">
-        <v>184</v>
-      </c>
+      <c r="D587" s="14"/>
       <c r="E587" s="14" t="s">
         <v>11</v>
       </c>
@@ -12646,9 +11504,7 @@
       <c r="C588" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D588" s="14" t="n">
-        <v>185</v>
-      </c>
+      <c r="D588" s="14"/>
       <c r="E588" s="14" t="s">
         <v>11</v>
       </c>
@@ -12663,9 +11519,7 @@
       <c r="C589" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D589" s="14" t="n">
-        <v>185</v>
-      </c>
+      <c r="D589" s="14"/>
       <c r="E589" s="14" t="s">
         <v>11</v>
       </c>
@@ -12680,9 +11534,7 @@
       <c r="C590" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D590" s="14" t="n">
-        <v>186</v>
-      </c>
+      <c r="D590" s="14"/>
       <c r="E590" s="14" t="s">
         <v>11</v>
       </c>
@@ -12697,9 +11549,7 @@
       <c r="C591" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D591" s="14" t="n">
-        <v>186</v>
-      </c>
+      <c r="D591" s="14"/>
       <c r="E591" s="14" t="s">
         <v>11</v>
       </c>
@@ -12714,9 +11564,7 @@
       <c r="C592" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D592" s="14" t="n">
-        <v>187</v>
-      </c>
+      <c r="D592" s="14"/>
       <c r="E592" s="14" t="s">
         <v>11</v>
       </c>
@@ -12738,9 +11586,7 @@
       <c r="C594" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D594" s="14" t="n">
-        <v>188</v>
-      </c>
+      <c r="D594" s="14"/>
       <c r="E594" s="14" t="s">
         <v>11</v>
       </c>
@@ -12755,9 +11601,7 @@
       <c r="C595" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D595" s="14" t="n">
-        <v>188</v>
-      </c>
+      <c r="D595" s="14"/>
       <c r="E595" s="14" t="s">
         <v>11</v>
       </c>
@@ -12772,9 +11616,7 @@
       <c r="C596" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D596" s="14" t="n">
-        <v>188</v>
-      </c>
+      <c r="D596" s="14"/>
       <c r="E596" s="14" t="s">
         <v>11</v>
       </c>
@@ -12789,9 +11631,7 @@
       <c r="C597" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D597" s="14" t="n">
-        <v>188</v>
-      </c>
+      <c r="D597" s="14"/>
       <c r="E597" s="14" t="s">
         <v>11</v>
       </c>
@@ -12806,9 +11646,7 @@
       <c r="C598" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D598" s="14" t="n">
-        <v>189</v>
-      </c>
+      <c r="D598" s="14"/>
       <c r="E598" s="14" t="s">
         <v>11</v>
       </c>
@@ -12823,9 +11661,7 @@
       <c r="C599" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D599" s="14" t="n">
-        <v>189</v>
-      </c>
+      <c r="D599" s="14"/>
       <c r="E599" s="14" t="s">
         <v>11</v>
       </c>
@@ -12840,9 +11676,7 @@
       <c r="C600" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D600" s="14" t="n">
-        <v>189</v>
-      </c>
+      <c r="D600" s="14"/>
       <c r="E600" s="14" t="s">
         <v>11</v>
       </c>
@@ -12857,9 +11691,7 @@
       <c r="C601" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D601" s="14" t="n">
-        <v>190</v>
-      </c>
+      <c r="D601" s="14"/>
       <c r="E601" s="14" t="s">
         <v>11</v>
       </c>
@@ -12874,9 +11706,7 @@
       <c r="C602" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D602" s="14" t="n">
-        <v>190</v>
-      </c>
+      <c r="D602" s="14"/>
       <c r="E602" s="14" t="s">
         <v>11</v>
       </c>
@@ -12891,9 +11721,7 @@
       <c r="C603" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D603" s="14" t="n">
-        <v>190</v>
-      </c>
+      <c r="D603" s="14"/>
       <c r="E603" s="14" t="s">
         <v>11</v>
       </c>
@@ -12908,9 +11736,7 @@
       <c r="C604" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D604" s="14" t="n">
-        <v>191</v>
-      </c>
+      <c r="D604" s="14"/>
       <c r="E604" s="14" t="s">
         <v>11</v>
       </c>
@@ -12925,9 +11751,7 @@
       <c r="C605" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D605" s="14" t="n">
-        <v>191</v>
-      </c>
+      <c r="D605" s="14"/>
       <c r="E605" s="14" t="s">
         <v>11</v>
       </c>
@@ -12942,9 +11766,7 @@
       <c r="C606" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D606" s="14" t="n">
-        <v>191</v>
-      </c>
+      <c r="D606" s="14"/>
       <c r="E606" s="14" t="s">
         <v>11</v>
       </c>
@@ -12959,9 +11781,7 @@
       <c r="C607" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D607" s="14" t="n">
-        <v>192</v>
-      </c>
+      <c r="D607" s="14"/>
       <c r="E607" s="14" t="s">
         <v>11</v>
       </c>
@@ -12976,9 +11796,7 @@
       <c r="C608" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D608" s="14" t="n">
-        <v>192</v>
-      </c>
+      <c r="D608" s="14"/>
       <c r="E608" s="14" t="s">
         <v>11</v>
       </c>
@@ -12993,9 +11811,7 @@
       <c r="C609" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D609" s="14" t="n">
-        <v>192</v>
-      </c>
+      <c r="D609" s="14"/>
       <c r="E609" s="14" t="s">
         <v>11</v>
       </c>
@@ -13010,9 +11826,7 @@
       <c r="C610" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D610" s="14" t="n">
-        <v>193</v>
-      </c>
+      <c r="D610" s="14"/>
       <c r="E610" s="14" t="s">
         <v>11</v>
       </c>
@@ -13027,9 +11841,7 @@
       <c r="C611" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D611" s="14" t="n">
-        <v>193</v>
-      </c>
+      <c r="D611" s="14"/>
       <c r="E611" s="14" t="s">
         <v>11</v>
       </c>
@@ -13044,9 +11856,7 @@
       <c r="C612" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D612" s="14" t="n">
-        <v>193</v>
-      </c>
+      <c r="D612" s="14"/>
       <c r="E612" s="14" t="s">
         <v>11</v>
       </c>
@@ -13061,9 +11871,7 @@
       <c r="C613" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D613" s="14" t="n">
-        <v>194</v>
-      </c>
+      <c r="D613" s="14"/>
       <c r="E613" s="14" t="s">
         <v>11</v>
       </c>
@@ -13078,9 +11886,7 @@
       <c r="C614" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D614" s="14" t="n">
-        <v>194</v>
-      </c>
+      <c r="D614" s="14"/>
       <c r="E614" s="14" t="s">
         <v>11</v>
       </c>
@@ -13095,9 +11901,7 @@
       <c r="C615" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D615" s="14" t="n">
-        <v>194</v>
-      </c>
+      <c r="D615" s="14"/>
       <c r="E615" s="14" t="s">
         <v>11</v>
       </c>
@@ -13112,9 +11916,7 @@
       <c r="C616" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D616" s="14" t="n">
-        <v>195</v>
-      </c>
+      <c r="D616" s="14"/>
       <c r="E616" s="14" t="s">
         <v>11</v>
       </c>
@@ -13129,9 +11931,7 @@
       <c r="C617" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D617" s="14" t="n">
-        <v>195</v>
-      </c>
+      <c r="D617" s="14"/>
       <c r="E617" s="14" t="s">
         <v>11</v>
       </c>
@@ -13146,9 +11946,7 @@
       <c r="C618" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D618" s="14" t="n">
-        <v>195</v>
-      </c>
+      <c r="D618" s="14"/>
       <c r="E618" s="14" t="s">
         <v>11</v>
       </c>
@@ -13163,9 +11961,7 @@
       <c r="C619" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D619" s="14" t="n">
-        <v>196</v>
-      </c>
+      <c r="D619" s="14"/>
       <c r="E619" s="14" t="s">
         <v>11</v>
       </c>
@@ -13180,9 +11976,7 @@
       <c r="C620" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D620" s="14" t="n">
-        <v>196</v>
-      </c>
+      <c r="D620" s="14"/>
       <c r="E620" s="14" t="s">
         <v>11</v>
       </c>
@@ -13197,9 +11991,7 @@
       <c r="C621" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D621" s="14" t="n">
-        <v>196</v>
-      </c>
+      <c r="D621" s="14"/>
       <c r="E621" s="14" t="s">
         <v>11</v>
       </c>
@@ -13214,9 +12006,7 @@
       <c r="C622" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D622" s="14" t="n">
-        <v>197</v>
-      </c>
+      <c r="D622" s="14"/>
       <c r="E622" s="14" t="s">
         <v>11</v>
       </c>
@@ -13231,9 +12021,7 @@
       <c r="C623" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D623" s="14" t="n">
-        <v>197</v>
-      </c>
+      <c r="D623" s="14"/>
       <c r="E623" s="14" t="s">
         <v>11</v>
       </c>
@@ -13248,9 +12036,7 @@
       <c r="C624" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D624" s="14" t="n">
-        <v>197</v>
-      </c>
+      <c r="D624" s="14"/>
       <c r="E624" s="14" t="s">
         <v>11</v>
       </c>
@@ -13265,9 +12051,7 @@
       <c r="C625" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D625" s="14" t="n">
-        <v>198</v>
-      </c>
+      <c r="D625" s="14"/>
       <c r="E625" s="14" t="s">
         <v>11</v>
       </c>
@@ -13282,9 +12066,7 @@
       <c r="C626" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D626" s="14" t="n">
-        <v>198</v>
-      </c>
+      <c r="D626" s="14"/>
       <c r="E626" s="14" t="s">
         <v>11</v>
       </c>
@@ -13299,9 +12081,7 @@
       <c r="C627" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D627" s="14" t="n">
-        <v>198</v>
-      </c>
+      <c r="D627" s="14"/>
       <c r="E627" s="14" t="s">
         <v>11</v>
       </c>
@@ -13316,9 +12096,7 @@
       <c r="C628" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D628" s="14" t="n">
-        <v>199</v>
-      </c>
+      <c r="D628" s="14"/>
       <c r="E628" s="14" t="s">
         <v>11</v>
       </c>
@@ -13333,9 +12111,7 @@
       <c r="C629" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D629" s="14" t="n">
-        <v>199</v>
-      </c>
+      <c r="D629" s="14"/>
       <c r="E629" s="14" t="s">
         <v>11</v>
       </c>
@@ -13350,9 +12126,7 @@
       <c r="C630" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D630" s="14" t="n">
-        <v>199</v>
-      </c>
+      <c r="D630" s="14"/>
       <c r="E630" s="14" t="s">
         <v>11</v>
       </c>
@@ -13367,9 +12141,7 @@
       <c r="C631" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D631" s="14" t="n">
-        <v>200</v>
-      </c>
+      <c r="D631" s="14"/>
       <c r="E631" s="14" t="s">
         <v>11</v>
       </c>
@@ -13384,9 +12156,7 @@
       <c r="C632" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D632" s="14" t="n">
-        <v>200</v>
-      </c>
+      <c r="D632" s="14"/>
       <c r="E632" s="14" t="s">
         <v>11</v>
       </c>
@@ -13401,9 +12171,7 @@
       <c r="C633" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D633" s="14" t="n">
-        <v>200</v>
-      </c>
+      <c r="D633" s="14"/>
       <c r="E633" s="14" t="s">
         <v>11</v>
       </c>
@@ -13418,9 +12186,7 @@
       <c r="C634" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D634" s="14" t="n">
-        <v>201</v>
-      </c>
+      <c r="D634" s="14"/>
       <c r="E634" s="14" t="s">
         <v>11</v>
       </c>
@@ -13435,9 +12201,7 @@
       <c r="C635" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D635" s="14" t="n">
-        <v>201</v>
-      </c>
+      <c r="D635" s="14"/>
       <c r="E635" s="14" t="s">
         <v>11</v>
       </c>
@@ -13452,9 +12216,7 @@
       <c r="C636" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D636" s="14" t="n">
-        <v>201</v>
-      </c>
+      <c r="D636" s="14"/>
       <c r="E636" s="14" t="s">
         <v>11</v>
       </c>
@@ -13469,9 +12231,7 @@
       <c r="C637" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D637" s="14" t="n">
-        <v>202</v>
-      </c>
+      <c r="D637" s="14"/>
       <c r="E637" s="14" t="s">
         <v>11</v>
       </c>
@@ -13486,9 +12246,7 @@
       <c r="C638" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D638" s="14" t="n">
-        <v>202</v>
-      </c>
+      <c r="D638" s="14"/>
       <c r="E638" s="14" t="s">
         <v>11</v>
       </c>
@@ -13503,9 +12261,7 @@
       <c r="C639" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D639" s="14" t="n">
-        <v>202</v>
-      </c>
+      <c r="D639" s="14"/>
       <c r="E639" s="14" t="s">
         <v>11</v>
       </c>
@@ -13520,9 +12276,7 @@
       <c r="C640" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D640" s="14" t="n">
-        <v>203</v>
-      </c>
+      <c r="D640" s="14"/>
       <c r="E640" s="14" t="s">
         <v>11</v>
       </c>
@@ -13537,9 +12291,7 @@
       <c r="C641" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D641" s="14" t="n">
-        <v>203</v>
-      </c>
+      <c r="D641" s="14"/>
       <c r="E641" s="14" t="s">
         <v>11</v>
       </c>
@@ -13554,9 +12306,7 @@
       <c r="C642" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D642" s="14" t="n">
-        <v>203</v>
-      </c>
+      <c r="D642" s="14"/>
       <c r="E642" s="14" t="s">
         <v>11</v>
       </c>
@@ -13571,9 +12321,7 @@
       <c r="C643" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D643" s="14" t="n">
-        <v>204</v>
-      </c>
+      <c r="D643" s="14"/>
       <c r="E643" s="14" t="s">
         <v>11</v>
       </c>
@@ -13588,9 +12336,7 @@
       <c r="C644" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D644" s="14" t="n">
-        <v>204</v>
-      </c>
+      <c r="D644" s="14"/>
       <c r="E644" s="14" t="s">
         <v>11</v>
       </c>
@@ -13605,9 +12351,7 @@
       <c r="C645" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D645" s="14" t="n">
-        <v>204</v>
-      </c>
+      <c r="D645" s="14"/>
       <c r="E645" s="14" t="s">
         <v>11</v>
       </c>
@@ -13622,9 +12366,7 @@
       <c r="C646" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D646" s="14" t="n">
-        <v>205</v>
-      </c>
+      <c r="D646" s="14"/>
       <c r="E646" s="14" t="s">
         <v>11</v>
       </c>
@@ -13639,9 +12381,7 @@
       <c r="C647" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D647" s="14" t="n">
-        <v>205</v>
-      </c>
+      <c r="D647" s="14"/>
       <c r="E647" s="14" t="s">
         <v>11</v>
       </c>
@@ -13656,9 +12396,7 @@
       <c r="C648" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D648" s="14" t="n">
-        <v>205</v>
-      </c>
+      <c r="D648" s="14"/>
       <c r="E648" s="14" t="s">
         <v>11</v>
       </c>
@@ -13673,9 +12411,7 @@
       <c r="C649" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D649" s="14" t="n">
-        <v>206</v>
-      </c>
+      <c r="D649" s="14"/>
       <c r="E649" s="14" t="s">
         <v>11</v>
       </c>
@@ -13690,9 +12426,7 @@
       <c r="C650" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D650" s="14" t="n">
-        <v>206</v>
-      </c>
+      <c r="D650" s="14"/>
       <c r="E650" s="14" t="s">
         <v>11</v>
       </c>
@@ -13707,9 +12441,7 @@
       <c r="C651" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D651" s="14" t="n">
-        <v>206</v>
-      </c>
+      <c r="D651" s="14"/>
       <c r="E651" s="14" t="s">
         <v>11</v>
       </c>
@@ -13724,9 +12456,7 @@
       <c r="C652" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D652" s="14" t="n">
-        <v>207</v>
-      </c>
+      <c r="D652" s="14"/>
       <c r="E652" s="14" t="s">
         <v>11</v>
       </c>
@@ -13741,9 +12471,7 @@
       <c r="C653" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D653" s="14" t="n">
-        <v>207</v>
-      </c>
+      <c r="D653" s="14"/>
       <c r="E653" s="14" t="s">
         <v>11</v>
       </c>
@@ -13758,9 +12486,7 @@
       <c r="C654" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D654" s="14" t="n">
-        <v>207</v>
-      </c>
+      <c r="D654" s="14"/>
       <c r="E654" s="14" t="s">
         <v>11</v>
       </c>
@@ -13775,9 +12501,7 @@
       <c r="C655" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D655" s="14" t="n">
-        <v>208</v>
-      </c>
+      <c r="D655" s="14"/>
       <c r="E655" s="14" t="s">
         <v>11</v>
       </c>
@@ -13792,9 +12516,7 @@
       <c r="C656" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D656" s="14" t="n">
-        <v>208</v>
-      </c>
+      <c r="D656" s="14"/>
       <c r="E656" s="14" t="s">
         <v>11</v>
       </c>
@@ -13809,9 +12531,7 @@
       <c r="C657" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D657" s="14" t="n">
-        <v>208</v>
-      </c>
+      <c r="D657" s="14"/>
       <c r="E657" s="14" t="s">
         <v>11</v>
       </c>
@@ -13826,9 +12546,7 @@
       <c r="C658" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D658" s="14" t="n">
-        <v>209</v>
-      </c>
+      <c r="D658" s="14"/>
       <c r="E658" s="14" t="s">
         <v>11</v>
       </c>
@@ -13843,9 +12561,7 @@
       <c r="C659" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D659" s="14" t="n">
-        <v>209</v>
-      </c>
+      <c r="D659" s="14"/>
       <c r="E659" s="14" t="s">
         <v>11</v>
       </c>
@@ -13860,9 +12576,7 @@
       <c r="C660" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D660" s="14" t="n">
-        <v>209</v>
-      </c>
+      <c r="D660" s="14"/>
       <c r="E660" s="14" t="s">
         <v>11</v>
       </c>
@@ -13877,9 +12591,7 @@
       <c r="C661" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D661" s="14" t="n">
-        <v>210</v>
-      </c>
+      <c r="D661" s="14"/>
       <c r="E661" s="14" t="s">
         <v>11</v>
       </c>
@@ -13894,9 +12606,7 @@
       <c r="C662" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D662" s="14" t="n">
-        <v>210</v>
-      </c>
+      <c r="D662" s="14"/>
       <c r="E662" s="14" t="s">
         <v>11</v>
       </c>
@@ -13911,9 +12621,7 @@
       <c r="C663" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D663" s="14" t="n">
-        <v>210</v>
-      </c>
+      <c r="D663" s="14"/>
       <c r="E663" s="14" t="s">
         <v>11</v>
       </c>
@@ -13928,9 +12636,7 @@
       <c r="C664" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D664" s="14" t="n">
-        <v>211</v>
-      </c>
+      <c r="D664" s="14"/>
       <c r="E664" s="14" t="s">
         <v>11</v>
       </c>
@@ -13945,9 +12651,7 @@
       <c r="C665" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D665" s="14" t="n">
-        <v>211</v>
-      </c>
+      <c r="D665" s="14"/>
       <c r="E665" s="14" t="s">
         <v>11</v>
       </c>
@@ -13962,9 +12666,7 @@
       <c r="C666" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D666" s="14" t="n">
-        <v>211</v>
-      </c>
+      <c r="D666" s="14"/>
       <c r="E666" s="14" t="s">
         <v>11</v>
       </c>
@@ -13979,9 +12681,7 @@
       <c r="C667" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D667" s="14" t="n">
-        <v>212</v>
-      </c>
+      <c r="D667" s="14"/>
       <c r="E667" s="14" t="s">
         <v>11</v>
       </c>
@@ -13996,9 +12696,7 @@
       <c r="C668" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D668" s="14" t="n">
-        <v>212</v>
-      </c>
+      <c r="D668" s="14"/>
       <c r="E668" s="14" t="s">
         <v>11</v>
       </c>
@@ -14013,9 +12711,7 @@
       <c r="C669" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D669" s="14" t="n">
-        <v>212</v>
-      </c>
+      <c r="D669" s="14"/>
       <c r="E669" s="14" t="s">
         <v>11</v>
       </c>
@@ -14030,9 +12726,7 @@
       <c r="C670" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D670" s="14" t="n">
-        <v>213</v>
-      </c>
+      <c r="D670" s="14"/>
       <c r="E670" s="14" t="s">
         <v>11</v>
       </c>
@@ -14047,9 +12741,7 @@
       <c r="C671" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D671" s="14" t="n">
-        <v>213</v>
-      </c>
+      <c r="D671" s="14"/>
       <c r="E671" s="14" t="s">
         <v>11</v>
       </c>
@@ -14064,9 +12756,7 @@
       <c r="C672" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D672" s="14" t="n">
-        <v>213</v>
-      </c>
+      <c r="D672" s="14"/>
       <c r="E672" s="14" t="s">
         <v>11</v>
       </c>
@@ -14081,9 +12771,7 @@
       <c r="C673" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D673" s="14" t="n">
-        <v>214</v>
-      </c>
+      <c r="D673" s="14"/>
       <c r="E673" s="14" t="s">
         <v>11</v>
       </c>
@@ -14098,9 +12786,7 @@
       <c r="C674" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D674" s="14" t="n">
-        <v>214</v>
-      </c>
+      <c r="D674" s="14"/>
       <c r="E674" s="14" t="s">
         <v>11</v>
       </c>
@@ -14115,9 +12801,7 @@
       <c r="C675" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D675" s="14" t="n">
-        <v>214</v>
-      </c>
+      <c r="D675" s="14"/>
       <c r="E675" s="14" t="s">
         <v>11</v>
       </c>
@@ -14132,9 +12816,7 @@
       <c r="C676" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D676" s="14" t="n">
-        <v>215</v>
-      </c>
+      <c r="D676" s="14"/>
       <c r="E676" s="14" t="s">
         <v>11</v>
       </c>
@@ -14149,9 +12831,7 @@
       <c r="C677" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D677" s="14" t="n">
-        <v>215</v>
-      </c>
+      <c r="D677" s="14"/>
       <c r="E677" s="14" t="s">
         <v>11</v>
       </c>
@@ -14166,9 +12846,7 @@
       <c r="C678" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D678" s="14" t="n">
-        <v>215</v>
-      </c>
+      <c r="D678" s="14"/>
       <c r="E678" s="14" t="s">
         <v>11</v>
       </c>
@@ -14183,9 +12861,7 @@
       <c r="C679" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D679" s="14" t="n">
-        <v>216</v>
-      </c>
+      <c r="D679" s="14"/>
       <c r="E679" s="14" t="s">
         <v>11</v>
       </c>
@@ -14200,9 +12876,7 @@
       <c r="C680" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D680" s="14" t="n">
-        <v>216</v>
-      </c>
+      <c r="D680" s="14"/>
       <c r="E680" s="14" t="s">
         <v>11</v>
       </c>
@@ -14217,9 +12891,7 @@
       <c r="C681" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D681" s="14" t="n">
-        <v>216</v>
-      </c>
+      <c r="D681" s="14"/>
       <c r="E681" s="14" t="s">
         <v>11</v>
       </c>
@@ -14234,9 +12906,7 @@
       <c r="C682" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D682" s="14" t="n">
-        <v>217</v>
-      </c>
+      <c r="D682" s="14"/>
       <c r="E682" s="14" t="s">
         <v>11</v>
       </c>
@@ -14251,9 +12921,7 @@
       <c r="C683" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D683" s="14" t="n">
-        <v>217</v>
-      </c>
+      <c r="D683" s="14"/>
       <c r="E683" s="14" t="s">
         <v>11</v>
       </c>
@@ -14268,9 +12936,7 @@
       <c r="C684" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D684" s="14" t="n">
-        <v>217</v>
-      </c>
+      <c r="D684" s="14"/>
       <c r="E684" s="14" t="s">
         <v>11</v>
       </c>
@@ -14285,9 +12951,7 @@
       <c r="C685" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D685" s="14" t="n">
-        <v>218</v>
-      </c>
+      <c r="D685" s="14"/>
       <c r="E685" s="14" t="s">
         <v>11</v>
       </c>
@@ -14302,9 +12966,7 @@
       <c r="C686" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D686" s="14" t="n">
-        <v>218</v>
-      </c>
+      <c r="D686" s="14"/>
       <c r="E686" s="14" t="s">
         <v>11</v>
       </c>
@@ -14319,9 +12981,7 @@
       <c r="C687" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D687" s="14" t="n">
-        <v>218</v>
-      </c>
+      <c r="D687" s="14"/>
       <c r="E687" s="14" t="s">
         <v>11</v>
       </c>
@@ -14336,9 +12996,7 @@
       <c r="C688" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D688" s="14" t="n">
-        <v>219</v>
-      </c>
+      <c r="D688" s="14"/>
       <c r="E688" s="14" t="s">
         <v>11</v>
       </c>
@@ -14353,9 +13011,7 @@
       <c r="C689" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D689" s="14" t="n">
-        <v>219</v>
-      </c>
+      <c r="D689" s="14"/>
       <c r="E689" s="14" t="s">
         <v>11</v>
       </c>
@@ -14370,9 +13026,7 @@
       <c r="C690" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D690" s="14" t="n">
-        <v>219</v>
-      </c>
+      <c r="D690" s="14"/>
       <c r="E690" s="14" t="s">
         <v>11</v>
       </c>
@@ -14387,9 +13041,7 @@
       <c r="C691" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D691" s="14" t="n">
-        <v>220</v>
-      </c>
+      <c r="D691" s="14"/>
       <c r="E691" s="14" t="s">
         <v>11</v>
       </c>
@@ -14404,9 +13056,7 @@
       <c r="C692" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D692" s="14" t="n">
-        <v>220</v>
-      </c>
+      <c r="D692" s="14"/>
       <c r="E692" s="14" t="s">
         <v>11</v>
       </c>
@@ -14421,9 +13071,7 @@
       <c r="C693" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D693" s="14" t="n">
-        <v>220</v>
-      </c>
+      <c r="D693" s="14"/>
       <c r="E693" s="14" t="s">
         <v>11</v>
       </c>
@@ -14438,9 +13086,7 @@
       <c r="C694" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D694" s="14" t="n">
-        <v>221</v>
-      </c>
+      <c r="D694" s="14"/>
       <c r="E694" s="14" t="s">
         <v>11</v>
       </c>
@@ -14455,9 +13101,7 @@
       <c r="C695" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D695" s="14" t="n">
-        <v>221</v>
-      </c>
+      <c r="D695" s="14"/>
       <c r="E695" s="14" t="s">
         <v>11</v>
       </c>
@@ -14472,9 +13116,7 @@
       <c r="C696" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D696" s="14" t="n">
-        <v>221</v>
-      </c>
+      <c r="D696" s="14"/>
       <c r="E696" s="14" t="s">
         <v>11</v>
       </c>
@@ -14489,9 +13131,7 @@
       <c r="C697" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D697" s="14" t="n">
-        <v>222</v>
-      </c>
+      <c r="D697" s="14"/>
       <c r="E697" s="14" t="s">
         <v>11</v>
       </c>
@@ -14506,9 +13146,7 @@
       <c r="C698" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D698" s="14" t="n">
-        <v>222</v>
-      </c>
+      <c r="D698" s="14"/>
       <c r="E698" s="14" t="s">
         <v>11</v>
       </c>
@@ -14523,9 +13161,7 @@
       <c r="C699" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D699" s="14" t="n">
-        <v>223</v>
-      </c>
+      <c r="D699" s="14"/>
       <c r="E699" s="14" t="s">
         <v>11</v>
       </c>
@@ -14540,9 +13176,7 @@
       <c r="C700" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D700" s="14" t="n">
-        <v>223</v>
-      </c>
+      <c r="D700" s="14"/>
       <c r="E700" s="14" t="s">
         <v>11</v>
       </c>
@@ -14557,9 +13191,7 @@
       <c r="C701" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D701" s="14" t="n">
-        <v>224</v>
-      </c>
+      <c r="D701" s="14"/>
       <c r="E701" s="14" t="s">
         <v>11</v>
       </c>
@@ -14574,9 +13206,7 @@
       <c r="C702" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D702" s="14" t="n">
-        <v>224</v>
-      </c>
+      <c r="D702" s="14"/>
       <c r="E702" s="14" t="s">
         <v>11</v>
       </c>
@@ -14591,9 +13221,7 @@
       <c r="C703" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D703" s="14" t="n">
-        <v>225</v>
-      </c>
+      <c r="D703" s="14"/>
       <c r="E703" s="14" t="s">
         <v>11</v>
       </c>
@@ -14608,9 +13236,7 @@
       <c r="C704" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D704" s="14" t="n">
-        <v>225</v>
-      </c>
+      <c r="D704" s="14"/>
       <c r="E704" s="14" t="s">
         <v>11</v>
       </c>
@@ -14625,9 +13251,7 @@
       <c r="C705" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D705" s="14" t="n">
-        <v>226</v>
-      </c>
+      <c r="D705" s="14"/>
       <c r="E705" s="14" t="s">
         <v>11</v>
       </c>
@@ -14642,9 +13266,7 @@
       <c r="C706" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D706" s="14" t="n">
-        <v>227</v>
-      </c>
+      <c r="D706" s="14"/>
       <c r="E706" s="14" t="s">
         <v>11</v>
       </c>
@@ -14659,9 +13281,7 @@
       <c r="C707" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D707" s="14" t="n">
-        <v>227</v>
-      </c>
+      <c r="D707" s="14"/>
       <c r="E707" s="14" t="s">
         <v>11</v>
       </c>
@@ -14676,9 +13296,7 @@
       <c r="C708" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D708" s="14" t="n">
-        <v>228</v>
-      </c>
+      <c r="D708" s="14"/>
       <c r="E708" s="14" t="s">
         <v>11</v>
       </c>
@@ -14693,9 +13311,7 @@
       <c r="C709" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D709" s="14" t="n">
-        <v>228</v>
-      </c>
+      <c r="D709" s="14"/>
       <c r="E709" s="14" t="s">
         <v>11</v>
       </c>
@@ -14710,9 +13326,7 @@
       <c r="C710" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D710" s="14" t="n">
-        <v>229</v>
-      </c>
+      <c r="D710" s="14"/>
       <c r="E710" s="14" t="s">
         <v>11</v>
       </c>
@@ -14727,9 +13341,7 @@
       <c r="C711" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D711" s="14" t="n">
-        <v>229</v>
-      </c>
+      <c r="D711" s="14"/>
       <c r="E711" s="14" t="s">
         <v>11</v>
       </c>
@@ -14744,9 +13356,7 @@
       <c r="C712" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D712" s="14" t="n">
-        <v>230</v>
-      </c>
+      <c r="D712" s="14"/>
       <c r="E712" s="14" t="s">
         <v>11</v>
       </c>
@@ -14761,9 +13371,7 @@
       <c r="C713" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D713" s="14" t="n">
-        <v>230</v>
-      </c>
+      <c r="D713" s="14"/>
       <c r="E713" s="14" t="s">
         <v>11</v>
       </c>
@@ -14778,9 +13386,7 @@
       <c r="C714" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D714" s="14" t="n">
-        <v>231</v>
-      </c>
+      <c r="D714" s="14"/>
       <c r="E714" s="14" t="s">
         <v>11</v>
       </c>
@@ -14795,9 +13401,7 @@
       <c r="C715" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D715" s="14" t="n">
-        <v>231</v>
-      </c>
+      <c r="D715" s="14"/>
       <c r="E715" s="14" t="s">
         <v>11</v>
       </c>
@@ -14812,9 +13416,7 @@
       <c r="C716" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D716" s="14" t="n">
-        <v>232</v>
-      </c>
+      <c r="D716" s="14"/>
       <c r="E716" s="14" t="s">
         <v>11</v>
       </c>
@@ -14836,9 +13438,7 @@
       <c r="C718" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D718" s="14" t="n">
-        <v>233</v>
-      </c>
+      <c r="D718" s="14"/>
       <c r="E718" s="14" t="s">
         <v>11</v>
       </c>
@@ -14853,9 +13453,7 @@
       <c r="C719" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D719" s="14" t="n">
-        <v>233</v>
-      </c>
+      <c r="D719" s="14"/>
       <c r="E719" s="14" t="s">
         <v>11</v>
       </c>
@@ -14870,9 +13468,7 @@
       <c r="C720" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D720" s="14" t="n">
-        <v>233</v>
-      </c>
+      <c r="D720" s="14"/>
       <c r="E720" s="14" t="s">
         <v>11</v>
       </c>
@@ -14887,9 +13483,7 @@
       <c r="C721" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D721" s="14" t="n">
-        <v>233</v>
-      </c>
+      <c r="D721" s="14"/>
       <c r="E721" s="14" t="s">
         <v>11</v>
       </c>
@@ -14904,9 +13498,7 @@
       <c r="C722" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D722" s="14" t="n">
-        <v>234</v>
-      </c>
+      <c r="D722" s="14"/>
       <c r="E722" s="14" t="s">
         <v>11</v>
       </c>
@@ -14921,9 +13513,7 @@
       <c r="C723" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D723" s="14" t="n">
-        <v>234</v>
-      </c>
+      <c r="D723" s="14"/>
       <c r="E723" s="14" t="s">
         <v>11</v>
       </c>
@@ -14938,9 +13528,7 @@
       <c r="C724" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D724" s="14" t="n">
-        <v>234</v>
-      </c>
+      <c r="D724" s="14"/>
       <c r="E724" s="14" t="s">
         <v>11</v>
       </c>
@@ -14955,9 +13543,7 @@
       <c r="C725" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D725" s="14" t="n">
-        <v>235</v>
-      </c>
+      <c r="D725" s="14"/>
       <c r="E725" s="14" t="s">
         <v>11</v>
       </c>
@@ -14972,9 +13558,7 @@
       <c r="C726" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D726" s="14" t="n">
-        <v>235</v>
-      </c>
+      <c r="D726" s="14"/>
       <c r="E726" s="14" t="s">
         <v>11</v>
       </c>
@@ -14996,9 +13580,7 @@
       <c r="C728" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D728" s="14" t="n">
-        <v>236</v>
-      </c>
+      <c r="D728" s="14"/>
       <c r="E728" s="14" t="s">
         <v>11</v>
       </c>
@@ -15013,9 +13595,7 @@
       <c r="C729" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D729" s="14" t="n">
-        <v>236</v>
-      </c>
+      <c r="D729" s="14"/>
       <c r="E729" s="14" t="s">
         <v>11</v>
       </c>
@@ -15030,9 +13610,7 @@
       <c r="C730" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D730" s="14" t="n">
-        <v>236</v>
-      </c>
+      <c r="D730" s="14"/>
       <c r="E730" s="14" t="s">
         <v>11</v>
       </c>
@@ -15047,9 +13625,7 @@
       <c r="C731" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D731" s="14" t="n">
-        <v>236</v>
-      </c>
+      <c r="D731" s="14"/>
       <c r="E731" s="14" t="s">
         <v>11</v>
       </c>
@@ -15064,9 +13640,7 @@
       <c r="C732" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D732" s="14" t="n">
-        <v>237</v>
-      </c>
+      <c r="D732" s="14"/>
       <c r="E732" s="14" t="s">
         <v>11</v>
       </c>
@@ -15081,9 +13655,7 @@
       <c r="C733" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D733" s="14" t="n">
-        <v>237</v>
-      </c>
+      <c r="D733" s="14"/>
       <c r="E733" s="14" t="s">
         <v>11</v>
       </c>
@@ -15098,9 +13670,7 @@
       <c r="C734" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D734" s="14" t="n">
-        <v>237</v>
-      </c>
+      <c r="D734" s="14"/>
       <c r="E734" s="14" t="s">
         <v>11</v>
       </c>
@@ -15115,9 +13685,7 @@
       <c r="C735" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D735" s="14" t="n">
-        <v>238</v>
-      </c>
+      <c r="D735" s="14"/>
       <c r="E735" s="14" t="s">
         <v>11</v>
       </c>
@@ -15132,9 +13700,7 @@
       <c r="C736" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D736" s="14" t="n">
-        <v>238</v>
-      </c>
+      <c r="D736" s="14"/>
       <c r="E736" s="14" t="s">
         <v>11</v>
       </c>
@@ -15149,9 +13715,7 @@
       <c r="C737" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D737" s="14" t="n">
-        <v>238</v>
-      </c>
+      <c r="D737" s="14"/>
       <c r="E737" s="14" t="s">
         <v>11</v>
       </c>
@@ -15166,9 +13730,7 @@
       <c r="C738" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D738" s="14" t="n">
-        <v>239</v>
-      </c>
+      <c r="D738" s="14"/>
       <c r="E738" s="14" t="s">
         <v>11</v>
       </c>
@@ -15183,9 +13745,7 @@
       <c r="C739" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D739" s="14" t="n">
-        <v>239</v>
-      </c>
+      <c r="D739" s="14"/>
       <c r="E739" s="14" t="s">
         <v>11</v>
       </c>
@@ -15200,9 +13760,7 @@
       <c r="C740" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D740" s="14" t="n">
-        <v>240</v>
-      </c>
+      <c r="D740" s="14"/>
       <c r="E740" s="14" t="s">
         <v>11</v>
       </c>
@@ -15217,9 +13775,7 @@
       <c r="C741" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D741" s="14" t="n">
-        <v>240</v>
-      </c>
+      <c r="D741" s="14"/>
       <c r="E741" s="14" t="s">
         <v>11</v>
       </c>
@@ -15241,9 +13797,7 @@
       <c r="C743" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D743" s="14" t="n">
-        <v>241</v>
-      </c>
+      <c r="D743" s="14"/>
       <c r="E743" s="14" t="s">
         <v>11</v>
       </c>
@@ -15258,9 +13812,7 @@
       <c r="C744" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D744" s="14" t="n">
-        <v>241</v>
-      </c>
+      <c r="D744" s="14"/>
       <c r="E744" s="14" t="s">
         <v>11</v>
       </c>
@@ -15275,9 +13827,7 @@
       <c r="C745" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D745" s="14" t="n">
-        <v>242</v>
-      </c>
+      <c r="D745" s="14"/>
       <c r="E745" s="14" t="s">
         <v>11</v>
       </c>
@@ -15292,13 +13842,170 @@
       <c r="C746" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D746" s="14" t="n">
-        <v>242</v>
-      </c>
+      <c r="D746" s="14"/>
       <c r="E746" s="14" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="How to Use this Sheet Optimally: https://youtu.be/XKUC1EPLiSY"/>
